--- a/EO-EC-TA-full/F3-full.xlsx
+++ b/EO-EC-TA-full/F3-full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\EO-EC-TA-full\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F91B100-DFBB-4E88-89FE-B86E3EABE0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DC023A-91BB-4BD8-932B-3353D47865D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3616D51F-C99E-4A56-8AD0-264D6D1E10FF}"/>
   </bookViews>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0303B13-E556-41A8-82B8-D0CDE46E2F3F}">
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119:L145"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,22 +531,22 @@
         <v>11</v>
       </c>
       <c r="B2" s="3">
-        <v>6.8857246100076859</v>
+        <v>18.545200852731231</v>
       </c>
       <c r="C2" s="3">
-        <v>19.02701771802958</v>
+        <v>3.5090066182571129</v>
       </c>
       <c r="D2" s="3">
-        <v>2.342018081115687</v>
+        <v>2.3317645416611921</v>
       </c>
       <c r="E2" s="3">
-        <v>2.3305484906640208</v>
+        <v>1.66571605846884</v>
       </c>
       <c r="F2" s="3">
-        <v>2.8591967067836621</v>
+        <v>1.9261799769518559</v>
       </c>
       <c r="G2" s="4">
-        <v>33.44450560660065</v>
+        <v>27.977868048070221</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K2" s="3">
         <v>0</v>
@@ -569,22 +569,22 @@
         <v>11</v>
       </c>
       <c r="B3" s="3">
-        <v>7.2499889752024602</v>
+        <v>8.9667318050000269</v>
       </c>
       <c r="C3" s="3">
-        <v>33.963738261858737</v>
+        <v>4.0193833573581941</v>
       </c>
       <c r="D3" s="3">
-        <v>3.9635811357356552</v>
+        <v>7.403470972784131</v>
       </c>
       <c r="E3" s="3">
-        <v>2.505940402524975</v>
+        <v>1.955591818287826</v>
       </c>
       <c r="F3" s="3">
-        <v>3.04970861577302</v>
-      </c>
-      <c r="G3" s="4">
-        <v>50.732957391094857</v>
+        <v>1.8320748039959021</v>
+      </c>
+      <c r="G3">
+        <v>24.177252757426078</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -593,36 +593,36 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3">
-        <v>9.4164439436343592</v>
-      </c>
-      <c r="C4" s="3">
-        <v>20.274048377780471</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5.4179085339747068</v>
-      </c>
-      <c r="E4" s="3">
-        <v>13.72432892781549</v>
-      </c>
-      <c r="F4" s="3">
-        <v>32.186458792053777</v>
-      </c>
-      <c r="G4" s="4">
-        <v>81.019188575258795</v>
+      <c r="B4" s="5">
+        <v>58.474410227069683</v>
+      </c>
+      <c r="C4" s="5">
+        <v>21.050332171275439</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4.8664001817884888</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2.199052629497896</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.1143634069051569</v>
+      </c>
+      <c r="G4">
+        <v>87.704558616536659</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
       </c>
       <c r="L4" t="s">
         <v>12</v>
@@ -645,22 +645,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>11.07093288596921</v>
+        <v>6.8857246100076859</v>
       </c>
       <c r="C5" s="3">
-        <v>29.389589158945899</v>
+        <v>19.02701771802958</v>
       </c>
       <c r="D5" s="3">
-        <v>5.9259868407754714</v>
+        <v>2.342018081115687</v>
       </c>
       <c r="E5" s="3">
-        <v>6.1123274142991066</v>
+        <v>2.3305484906640208</v>
       </c>
       <c r="F5" s="3">
-        <v>9.3326733120411127</v>
+        <v>2.8591967067836621</v>
       </c>
       <c r="G5" s="4">
-        <v>61.831509612030807</v>
+        <v>33.44450560660065</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
@@ -683,22 +683,22 @@
         <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>18.545200852731231</v>
+        <v>6.6549687078401094</v>
       </c>
       <c r="C6" s="3">
-        <v>3.5090066182571129</v>
+        <v>16.303224321027091</v>
       </c>
       <c r="D6" s="3">
-        <v>2.3317645416611921</v>
+        <v>2.2061818844464329</v>
       </c>
       <c r="E6" s="3">
-        <v>1.66571605846884</v>
+        <v>2.3367475639245172</v>
       </c>
       <c r="F6" s="3">
-        <v>1.9261799769518559</v>
-      </c>
-      <c r="G6" s="4">
-        <v>27.977868048070221</v>
+        <v>3.1629771965933471</v>
+      </c>
+      <c r="G6">
+        <v>30.664099673831501</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -721,22 +721,22 @@
         <v>11</v>
       </c>
       <c r="B7" s="3">
-        <v>19.01608393267254</v>
+        <v>12.267434379533229</v>
       </c>
       <c r="C7" s="3">
-        <v>18.063273590551269</v>
+        <v>19.911870341466638</v>
       </c>
       <c r="D7" s="3">
-        <v>3.179977172126355</v>
+        <v>3.5234580044736452</v>
       </c>
       <c r="E7" s="3">
-        <v>2.587512842227615</v>
+        <v>2.3717135646548009</v>
       </c>
       <c r="F7" s="3">
-        <v>3.0253642566089778</v>
-      </c>
-      <c r="G7" s="4">
-        <v>45.872211794186747</v>
+        <v>3.1845302134434328</v>
+      </c>
+      <c r="G7">
+        <v>41.25900650357174</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -759,22 +759,22 @@
         <v>11</v>
       </c>
       <c r="B8" s="3">
-        <v>20.9167622566201</v>
+        <v>7.2499889752024602</v>
       </c>
       <c r="C8" s="3">
-        <v>5.8897467947283104</v>
+        <v>33.963738261858737</v>
       </c>
       <c r="D8" s="3">
-        <v>3.8362873055849769</v>
+        <v>3.9635811357356552</v>
       </c>
       <c r="E8" s="3">
-        <v>2.9812800918191931</v>
+        <v>2.505940402524975</v>
       </c>
       <c r="F8" s="3">
-        <v>3.7852587858148512</v>
+        <v>3.04970861577302</v>
       </c>
       <c r="G8" s="4">
-        <v>37.409335234567443</v>
+        <v>50.732957391094857</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>11</v>
       </c>
       <c r="B9" s="3">
-        <v>25.856461765696089</v>
+        <v>11.76033273537962</v>
       </c>
       <c r="C9" s="3">
-        <v>9.7485236264731192</v>
+        <v>33.93074968631899</v>
       </c>
       <c r="D9" s="3">
-        <v>6.272662199856434</v>
+        <v>4.6071463495917024</v>
       </c>
       <c r="E9" s="3">
-        <v>6.3699035524919774</v>
+        <v>2.5664684808087972</v>
       </c>
       <c r="F9" s="3">
-        <v>12.811001759946381</v>
-      </c>
-      <c r="G9" s="4">
-        <v>61.058552904464008</v>
+        <v>2.201493767458742</v>
+      </c>
+      <c r="G9">
+        <v>55.066191019557849</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -835,22 +835,22 @@
         <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>32.019604691907404</v>
+        <v>19.01608393267254</v>
       </c>
       <c r="C10" s="3">
-        <v>7.5743914205127094</v>
+        <v>18.063273590551269</v>
       </c>
       <c r="D10" s="3">
-        <v>3.481785322927907</v>
+        <v>3.179977172126355</v>
       </c>
       <c r="E10" s="3">
-        <v>4.5514861415628021</v>
+        <v>2.587512842227615</v>
       </c>
       <c r="F10" s="3">
-        <v>3.4093491938226581</v>
+        <v>3.0253642566089778</v>
       </c>
       <c r="G10" s="4">
-        <v>51.03661677073346</v>
+        <v>45.872211794186747</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -872,23 +872,23 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
-        <v>34.836734295802692</v>
-      </c>
-      <c r="C11" s="3">
-        <v>18.625505741744298</v>
-      </c>
-      <c r="D11" s="3">
-        <v>28.715301518210129</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5.6604220132313223</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3.935215210309579</v>
-      </c>
-      <c r="G11" s="4">
-        <v>91.773178779298064</v>
+      <c r="B11" s="5">
+        <v>7.1014643547901404</v>
+      </c>
+      <c r="C11" s="5">
+        <v>7.0570206032469356</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5.2176182079177336</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.9025752279603538</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2.7961829611250129</v>
+      </c>
+      <c r="G11">
+        <v>25.07486135504017</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -897,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
       </c>
       <c r="L11" t="s">
         <v>12</v>
@@ -911,22 +911,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>46.788722059511258</v>
+        <v>80.318083303213058</v>
       </c>
       <c r="C12" s="3">
-        <v>16.817664786340941</v>
+        <v>14.017973147610769</v>
       </c>
       <c r="D12" s="3">
-        <v>5.6561946291919396</v>
+        <v>3.7518308172853341</v>
       </c>
       <c r="E12" s="3">
-        <v>4.3565455882173598</v>
+        <v>2.918412519407827</v>
       </c>
       <c r="F12" s="3">
-        <v>4.3206054837473662</v>
+        <v>2.504159530005269</v>
       </c>
       <c r="G12" s="4">
-        <v>77.939732547008873</v>
+        <v>103.5104593175223</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>48.595419593628847</v>
+        <v>9.0748461941652412</v>
       </c>
       <c r="C13" s="3">
-        <v>125.99493091796781</v>
+        <v>45.573879305679867</v>
       </c>
       <c r="D13" s="3">
-        <v>9.4963894978504886</v>
+        <v>13.09555906536392</v>
       </c>
       <c r="E13" s="3">
-        <v>6.3411665565943007</v>
+        <v>2.9434530342819931</v>
       </c>
       <c r="F13" s="3">
-        <v>4.6148597604279402</v>
-      </c>
-      <c r="G13" s="4">
-        <v>195.0427663264694</v>
+        <v>3.262142556548786</v>
+      </c>
+      <c r="G13">
+        <v>73.949880156039782</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -973,13 +973,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -987,22 +987,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="3">
-        <v>59.18702226324173</v>
+        <v>20.9167622566201</v>
       </c>
       <c r="C14" s="3">
-        <v>23.71509921756196</v>
+        <v>5.8897467947283104</v>
       </c>
       <c r="D14" s="3">
-        <v>6.8045580041998353</v>
+        <v>3.8362873055849769</v>
       </c>
       <c r="E14" s="3">
-        <v>4.5717358916443658</v>
+        <v>2.9812800918191931</v>
       </c>
       <c r="F14" s="3">
-        <v>6.5597581520766379</v>
+        <v>3.7852587858148512</v>
       </c>
       <c r="G14" s="4">
-        <v>100.8381735287245</v>
+        <v>37.409335234567443</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>11</v>
       </c>
       <c r="B15" s="3">
-        <v>64.648352503607256</v>
+        <v>87.1420942199194</v>
       </c>
       <c r="C15" s="3">
-        <v>13.461301450437549</v>
+        <v>14.77978443189137</v>
       </c>
       <c r="D15" s="3">
-        <v>16.44189652175773</v>
+        <v>6.4974481229873664</v>
       </c>
       <c r="E15" s="3">
-        <v>6.259058314465034</v>
+        <v>3.061129125079447</v>
       </c>
       <c r="F15" s="3">
-        <v>2.890920044542332</v>
+        <v>3.286149044132832</v>
       </c>
       <c r="G15" s="4">
-        <v>103.70152883480991</v>
+        <v>114.7666049440104</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1062,23 +1062,23 @@
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="3">
-        <v>70.169975700814774</v>
-      </c>
-      <c r="C16" s="3">
-        <v>12.20993944914834</v>
-      </c>
-      <c r="D16" s="3">
-        <v>8.2735119846047347</v>
-      </c>
-      <c r="E16" s="3">
-        <v>7.9010163858953506</v>
-      </c>
-      <c r="F16" s="3">
-        <v>7.7220249326030812</v>
-      </c>
-      <c r="G16" s="4">
-        <v>106.2764684530663</v>
+      <c r="B16" s="5">
+        <v>32.02723363058697</v>
+      </c>
+      <c r="C16" s="5">
+        <v>6.9269646634922371</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3.6219843287375388</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3.0679022863275822</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2.8725223053657229</v>
+      </c>
+      <c r="G16">
+        <v>48.516607214510039</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1087,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1</v>
       </c>
       <c r="L16" t="s">
         <v>12</v>
@@ -1100,23 +1100,23 @@
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="3">
-        <v>70.404680583626458</v>
-      </c>
-      <c r="C17" s="3">
-        <v>28.808555254381229</v>
-      </c>
-      <c r="D17" s="3">
-        <v>56.490588416416529</v>
-      </c>
-      <c r="E17" s="3">
-        <v>23.430932841242129</v>
-      </c>
-      <c r="F17" s="3">
-        <v>23.190726164354889</v>
-      </c>
-      <c r="G17" s="4">
-        <v>202.3254832600212</v>
+      <c r="B17" s="5">
+        <v>73.150551680826027</v>
+      </c>
+      <c r="C17" s="5">
+        <v>17.587755006762769</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3.096755728383501</v>
+      </c>
+      <c r="E17" s="5">
+        <v>3.1116774767673578</v>
+      </c>
+      <c r="F17" s="5">
+        <v>3.793398463839893</v>
+      </c>
+      <c r="G17">
+        <v>100.74013835657961</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1125,36 +1125,36 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>20</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="3">
-        <v>73.313498056735895</v>
-      </c>
-      <c r="C18" s="3">
-        <v>17.35949165074598</v>
-      </c>
-      <c r="D18" s="3">
-        <v>12.77636314961925</v>
-      </c>
-      <c r="E18" s="3">
-        <v>12.42562885780259</v>
-      </c>
-      <c r="F18" s="3">
-        <v>18.25949070593639</v>
-      </c>
-      <c r="G18" s="4">
-        <v>134.1344724208401</v>
+      <c r="B18" s="5">
+        <v>235.40594473500201</v>
+      </c>
+      <c r="C18" s="5">
+        <v>45.426447438716593</v>
+      </c>
+      <c r="D18" s="5">
+        <v>6.6095839837137511</v>
+      </c>
+      <c r="E18" s="5">
+        <v>3.1180169387886338</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2.2723988407111522</v>
+      </c>
+      <c r="G18">
+        <v>292.83239193693208</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1163,13 +1163,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1177,22 +1177,22 @@
         <v>11</v>
       </c>
       <c r="B19" s="3">
-        <v>80.318083303213058</v>
+        <v>20.325853623389492</v>
       </c>
       <c r="C19" s="3">
-        <v>14.017973147610769</v>
+        <v>10.98070739663531</v>
       </c>
       <c r="D19" s="3">
-        <v>3.7518308172853341</v>
+        <v>6.6898637279749176</v>
       </c>
       <c r="E19" s="3">
-        <v>2.918412519407827</v>
+        <v>3.2547944111020319</v>
       </c>
       <c r="F19" s="3">
-        <v>2.504159530005269</v>
-      </c>
-      <c r="G19" s="4">
-        <v>103.5104593175223</v>
+        <v>2.8092726634256309</v>
+      </c>
+      <c r="G19">
+        <v>44.060491822527382</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1215,22 +1215,22 @@
         <v>11</v>
       </c>
       <c r="B20" s="3">
-        <v>87.1420942199194</v>
+        <v>141.55316073081909</v>
       </c>
       <c r="C20" s="3">
-        <v>14.77978443189137</v>
+        <v>21.681387596790621</v>
       </c>
       <c r="D20" s="3">
-        <v>6.4974481229873664</v>
+        <v>4.8033375984384659</v>
       </c>
       <c r="E20" s="3">
-        <v>3.061129125079447</v>
+        <v>3.2654466581454451</v>
       </c>
       <c r="F20" s="3">
-        <v>3.286149044132832</v>
-      </c>
-      <c r="G20" s="4">
-        <v>114.7666049440104</v>
+        <v>2.4876958265666591</v>
+      </c>
+      <c r="G20">
+        <v>173.7910284107603</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1253,22 +1253,22 @@
         <v>11</v>
       </c>
       <c r="B21" s="3">
-        <v>147.29558812805399</v>
+        <v>9.5554795180264893</v>
       </c>
       <c r="C21" s="3">
-        <v>19.061077960631039</v>
+        <v>18.603015977784079</v>
       </c>
       <c r="D21" s="3">
-        <v>13.50394444836347</v>
+        <v>16.689920266898081</v>
       </c>
       <c r="E21" s="3">
-        <v>5.0953695374811518</v>
+        <v>3.2858483742721898</v>
       </c>
       <c r="F21" s="3">
-        <v>3.41116354291553</v>
-      </c>
-      <c r="G21" s="4">
-        <v>188.36714361744529</v>
+        <v>3.501770180271881</v>
+      </c>
+      <c r="G21">
+        <v>51.636034317252737</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1277,13 +1277,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1291,22 +1291,22 @@
         <v>11</v>
       </c>
       <c r="B22" s="3">
-        <v>152.6141085417116</v>
+        <v>9.1423725519517021</v>
       </c>
       <c r="C22" s="3">
-        <v>43.837199594873447</v>
+        <v>49.262621402391559</v>
       </c>
       <c r="D22" s="3">
-        <v>7.5344964545998439</v>
+        <v>6.4955273300751522</v>
       </c>
       <c r="E22" s="3">
-        <v>8.7152091109493188</v>
+        <v>3.3315029983990621</v>
       </c>
       <c r="F22" s="3">
-        <v>8.8408079325158138</v>
-      </c>
-      <c r="G22" s="4">
-        <v>221.54182163465001</v>
+        <v>4.1246923973224439</v>
+      </c>
+      <c r="G22">
+        <v>72.356716680139925</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1315,13 +1315,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -1329,22 +1329,22 @@
         <v>11</v>
       </c>
       <c r="B23" s="3">
-        <v>166.7389113450798</v>
+        <v>9.1423725519517021</v>
       </c>
       <c r="C23" s="3">
-        <v>13.773983803347321</v>
+        <v>49.262621402391559</v>
       </c>
       <c r="D23" s="3">
-        <v>10.3094993772664</v>
+        <v>6.4955273300751522</v>
       </c>
       <c r="E23" s="3">
-        <v>3.656397091485255</v>
+        <v>3.3315029983990621</v>
       </c>
       <c r="F23" s="3">
-        <v>2.5267961364572291</v>
-      </c>
-      <c r="G23" s="4">
-        <v>197.00558775363609</v>
+        <v>4.1246923973224439</v>
+      </c>
+      <c r="G23">
+        <v>72.356716680139925</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -1367,22 +1367,22 @@
         <v>11</v>
       </c>
       <c r="B24" s="3">
-        <v>184.63138089450541</v>
+        <v>9.1423725519517021</v>
       </c>
       <c r="C24" s="3">
-        <v>37.684182434630017</v>
+        <v>49.262621402391559</v>
       </c>
       <c r="D24" s="3">
-        <v>20.40537587904457</v>
+        <v>6.4955273300751522</v>
       </c>
       <c r="E24" s="3">
-        <v>19.536153645786879</v>
+        <v>3.3315029983990621</v>
       </c>
       <c r="F24" s="3">
-        <v>12.034899863123581</v>
-      </c>
-      <c r="G24" s="4">
-        <v>274.2919927170903</v>
+        <v>4.1246923973224439</v>
+      </c>
+      <c r="G24">
+        <v>72.356716680139925</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -1405,22 +1405,22 @@
         <v>11</v>
       </c>
       <c r="B25" s="3">
-        <v>8.9667318050000269</v>
+        <v>9.1423725519517021</v>
       </c>
       <c r="C25" s="3">
-        <v>4.0193833573581941</v>
+        <v>49.262621402391559</v>
       </c>
       <c r="D25" s="3">
-        <v>7.403470972784131</v>
+        <v>6.4955273300751522</v>
       </c>
       <c r="E25" s="3">
-        <v>1.955591818287826</v>
+        <v>3.3315029983990621</v>
       </c>
       <c r="F25" s="3">
-        <v>1.8320748039959021</v>
+        <v>4.1246923973224439</v>
       </c>
       <c r="G25">
-        <v>24.177252757426078</v>
+        <v>72.356716680139925</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="K25" s="3">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1443,22 +1443,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3">
-        <v>32.197613376434781</v>
+        <v>9.1423725519517021</v>
       </c>
       <c r="C26" s="3">
-        <v>7.7571755683163772</v>
+        <v>49.262621402391559</v>
       </c>
       <c r="D26" s="3">
-        <v>4.8274411496404364</v>
+        <v>6.4955273300751522</v>
       </c>
       <c r="E26" s="3">
-        <v>4.4490758417398162</v>
+        <v>3.3315029983990621</v>
       </c>
       <c r="F26" s="3">
-        <v>1.963247627797055</v>
+        <v>4.1246923973224439</v>
       </c>
       <c r="G26">
-        <v>51.194553563928459</v>
+        <v>72.356716680139925</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1467,13 +1467,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -1481,22 +1481,22 @@
         <v>11</v>
       </c>
       <c r="B27" s="3">
-        <v>11.76033273537962</v>
+        <v>9.1423725519517021</v>
       </c>
       <c r="C27" s="3">
-        <v>33.93074968631899</v>
+        <v>49.262621402391559</v>
       </c>
       <c r="D27" s="3">
-        <v>4.6071463495917024</v>
+        <v>6.4955273300751522</v>
       </c>
       <c r="E27" s="3">
-        <v>2.5664684808087972</v>
+        <v>3.3315029983990621</v>
       </c>
       <c r="F27" s="3">
-        <v>2.201493767458742</v>
+        <v>4.1246923973224439</v>
       </c>
       <c r="G27">
-        <v>55.066191019557849</v>
+        <v>72.356716680139925</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1519,22 +1519,22 @@
         <v>11</v>
       </c>
       <c r="B28" s="3">
-        <v>52.854778710400197</v>
+        <v>9.1423725519517021</v>
       </c>
       <c r="C28" s="3">
-        <v>11.728980267128859</v>
+        <v>49.262621402391559</v>
       </c>
       <c r="D28" s="3">
-        <v>16.19841159986818</v>
+        <v>6.4955273300751522</v>
       </c>
       <c r="E28" s="3">
-        <v>3.5764329672328001</v>
+        <v>3.3315029983990621</v>
       </c>
       <c r="F28" s="3">
-        <v>2.5369892848361331</v>
+        <v>4.1246923973224439</v>
       </c>
       <c r="G28">
-        <v>86.895592829466196</v>
+        <v>72.356716680139925</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K28" s="3">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -1557,22 +1557,22 @@
         <v>11</v>
       </c>
       <c r="B29" s="3">
-        <v>20.325853623389492</v>
+        <v>9.1423725519517021</v>
       </c>
       <c r="C29" s="3">
-        <v>10.98070739663531</v>
+        <v>49.262621402391559</v>
       </c>
       <c r="D29" s="3">
-        <v>6.6898637279749176</v>
+        <v>6.4955273300751522</v>
       </c>
       <c r="E29" s="3">
-        <v>3.2547944111020319</v>
+        <v>3.3315029983990621</v>
       </c>
       <c r="F29" s="3">
-        <v>2.8092726634256309</v>
+        <v>4.1246923973224439</v>
       </c>
       <c r="G29">
-        <v>44.060491822527382</v>
+        <v>72.356716680139925</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -1595,22 +1595,22 @@
         <v>11</v>
       </c>
       <c r="B30" s="3">
-        <v>110.4074992312234</v>
+        <v>9.1423725519517021</v>
       </c>
       <c r="C30" s="3">
-        <v>30.709653545106448</v>
+        <v>49.262621402391559</v>
       </c>
       <c r="D30" s="3">
-        <v>18.848204847412049</v>
+        <v>6.4955273300751522</v>
       </c>
       <c r="E30" s="3">
-        <v>5.4007664871512038</v>
+        <v>3.3315029983990621</v>
       </c>
       <c r="F30" s="3">
-        <v>2.819460508859001</v>
+        <v>4.1246923973224439</v>
       </c>
       <c r="G30">
-        <v>168.18558461975209</v>
+        <v>72.356716680139925</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1619,36 +1619,36 @@
         <v>0</v>
       </c>
       <c r="J30">
+        <v>22</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
         <v>14</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
-      <c r="L30" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="3">
-        <v>11.171129798058031</v>
-      </c>
-      <c r="C31" s="3">
-        <v>8.6211716921538226</v>
-      </c>
-      <c r="D31" s="3">
-        <v>8.9680125043296819</v>
-      </c>
-      <c r="E31" s="3">
-        <v>3.789892099997755</v>
-      </c>
-      <c r="F31" s="3">
-        <v>2.846073309634185</v>
+      <c r="B31" s="5">
+        <v>13.217620732822139</v>
+      </c>
+      <c r="C31" s="5">
+        <v>18.302560730467238</v>
+      </c>
+      <c r="D31" s="5">
+        <v>14.5049246038595</v>
+      </c>
+      <c r="E31" s="5">
+        <v>3.3847839384172378</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1.932239909123542</v>
       </c>
       <c r="G31">
-        <v>35.396279404173477</v>
+        <v>51.342129914689657</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>7</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K31" s="5">
+        <v>1</v>
       </c>
       <c r="L31" t="s">
         <v>13</v>
@@ -1670,23 +1670,23 @@
       <c r="A32" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="3">
-        <v>6.6549687078401094</v>
-      </c>
-      <c r="C32" s="3">
-        <v>16.303224321027091</v>
-      </c>
-      <c r="D32" s="3">
-        <v>2.2061818844464329</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2.3367475639245172</v>
-      </c>
-      <c r="F32" s="3">
-        <v>3.1629771965933471</v>
+      <c r="B32" s="5">
+        <v>83.15782538806819</v>
+      </c>
+      <c r="C32" s="5">
+        <v>22.308383291854401</v>
+      </c>
+      <c r="D32" s="5">
+        <v>4.6310989206127724</v>
+      </c>
+      <c r="E32" s="5">
+        <v>3.3848079504366528</v>
+      </c>
+      <c r="F32" s="5">
+        <v>3.6977010422816501</v>
       </c>
       <c r="G32">
-        <v>30.664099673831501</v>
+        <v>117.1798165932537</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1695,36 +1695,36 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="K32" s="5">
+        <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="3">
-        <v>12.267434379533229</v>
-      </c>
-      <c r="C33" s="3">
-        <v>19.911870341466638</v>
-      </c>
-      <c r="D33" s="3">
-        <v>3.5234580044736452</v>
-      </c>
-      <c r="E33" s="3">
-        <v>2.3717135646548009</v>
-      </c>
-      <c r="F33" s="3">
-        <v>3.1845302134434328</v>
+      <c r="B33" s="5">
+        <v>105.88281981495091</v>
+      </c>
+      <c r="C33" s="5">
+        <v>30.63553091011509</v>
+      </c>
+      <c r="D33" s="5">
+        <v>10.379006526702851</v>
+      </c>
+      <c r="E33" s="5">
+        <v>3.4606796165653142</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2.058876261333447</v>
       </c>
       <c r="G33">
-        <v>41.25900650357174</v>
+        <v>152.41691312966759</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1733,36 +1733,36 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>23</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="K33" s="5">
+        <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="3">
-        <v>36.363476861966817</v>
-      </c>
-      <c r="C34" s="3">
-        <v>21.90045295565783</v>
-      </c>
-      <c r="D34" s="3">
-        <v>56.222830580964128</v>
-      </c>
-      <c r="E34" s="3">
-        <v>6.239673463071437</v>
-      </c>
-      <c r="F34" s="3">
-        <v>3.2103158488188459</v>
+      <c r="B34" s="5">
+        <v>65.406557921099022</v>
+      </c>
+      <c r="C34" s="5">
+        <v>20.69542954441274</v>
+      </c>
+      <c r="D34" s="5">
+        <v>8.7164505973254442</v>
+      </c>
+      <c r="E34" s="5">
+        <v>3.5593449912106978</v>
+      </c>
+      <c r="F34" s="5">
+        <v>2.574372896372636</v>
       </c>
       <c r="G34">
-        <v>123.93674971047901</v>
+        <v>100.9521559504205</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K34" s="5">
+        <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -1785,22 +1785,22 @@
         <v>11</v>
       </c>
       <c r="B35" s="3">
-        <v>9.0748461941652412</v>
+        <v>52.854778710400197</v>
       </c>
       <c r="C35" s="3">
-        <v>45.573879305679867</v>
+        <v>11.728980267128859</v>
       </c>
       <c r="D35" s="3">
-        <v>13.09555906536392</v>
+        <v>16.19841159986818</v>
       </c>
       <c r="E35" s="3">
-        <v>2.9434530342819931</v>
+        <v>3.5764329672328001</v>
       </c>
       <c r="F35" s="3">
-        <v>3.262142556548786</v>
+        <v>2.5369892848361331</v>
       </c>
       <c r="G35">
-        <v>73.949880156039782</v>
+        <v>86.895592829466196</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -1822,23 +1822,23 @@
       <c r="A36" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="3">
-        <v>24.984053462119</v>
-      </c>
-      <c r="C36" s="3">
-        <v>11.36425081975875</v>
-      </c>
-      <c r="D36" s="3">
-        <v>10.578343946786349</v>
-      </c>
-      <c r="E36" s="3">
-        <v>4.1503884384178154</v>
-      </c>
-      <c r="F36" s="3">
-        <v>3.3035730875619511</v>
+      <c r="B36" s="5">
+        <v>17.558311608528349</v>
+      </c>
+      <c r="C36" s="5">
+        <v>19.466721200702391</v>
+      </c>
+      <c r="D36" s="5">
+        <v>15.51603178288884</v>
+      </c>
+      <c r="E36" s="5">
+        <v>3.646889214760384</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1.426505278814594</v>
       </c>
       <c r="G36">
-        <v>54.380609754643878</v>
+        <v>57.614459085694548</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1847,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>8</v>
-      </c>
-      <c r="K36" s="3">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K36" s="5">
+        <v>1</v>
       </c>
       <c r="L36" t="s">
         <v>13</v>
@@ -1861,22 +1861,22 @@
         <v>11</v>
       </c>
       <c r="B37" s="3">
-        <v>132.228909589122</v>
+        <v>166.7389113450798</v>
       </c>
       <c r="C37" s="3">
-        <v>13.38317636968212</v>
+        <v>13.773983803347321</v>
       </c>
       <c r="D37" s="3">
-        <v>29.535408351512491</v>
+        <v>10.3094993772664</v>
       </c>
       <c r="E37" s="3">
-        <v>6.0045239324720541</v>
+        <v>3.656397091485255</v>
       </c>
       <c r="F37" s="3">
-        <v>3.3833165925744382</v>
-      </c>
-      <c r="G37">
-        <v>184.5353348353631</v>
+        <v>2.5267961364572291</v>
+      </c>
+      <c r="G37" s="4">
+        <v>197.00558775363609</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1885,36 +1885,36 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="3">
-        <v>26.023898037096149</v>
-      </c>
-      <c r="C38" s="3">
-        <v>17.90090111806623</v>
-      </c>
-      <c r="D38" s="3">
-        <v>68.018149418803631</v>
-      </c>
-      <c r="E38" s="3">
-        <v>8.3769613927095108</v>
-      </c>
-      <c r="F38" s="3">
-        <v>3.399668795868779</v>
+      <c r="B38" s="5">
+        <v>232.28594054380781</v>
+      </c>
+      <c r="C38" s="5">
+        <v>55.915760942907447</v>
+      </c>
+      <c r="D38" s="5">
+        <v>7.2651510437669531</v>
+      </c>
+      <c r="E38" s="5">
+        <v>3.7480180874917242</v>
+      </c>
+      <c r="F38" s="5">
+        <v>3.7263230837477379</v>
       </c>
       <c r="G38">
-        <v>123.7195787625443</v>
+        <v>302.9411937017216</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1923,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>17</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="K38" s="5">
+        <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -1937,22 +1937,22 @@
         <v>11</v>
       </c>
       <c r="B39" s="3">
-        <v>9.5554795180264893</v>
+        <v>11.171129798058031</v>
       </c>
       <c r="C39" s="3">
-        <v>18.603015977784079</v>
+        <v>8.6211716921538226</v>
       </c>
       <c r="D39" s="3">
-        <v>16.689920266898081</v>
+        <v>8.9680125043296819</v>
       </c>
       <c r="E39" s="3">
-        <v>3.2858483742721898</v>
+        <v>3.789892099997755</v>
       </c>
       <c r="F39" s="3">
-        <v>3.501770180271881</v>
+        <v>2.846073309634185</v>
       </c>
       <c r="G39">
-        <v>51.636034317252737</v>
+        <v>35.396279404173477</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K39" s="3">
         <v>0</v>
@@ -1975,22 +1975,22 @@
         <v>11</v>
       </c>
       <c r="B40" s="3">
-        <v>59.327933234162799</v>
+        <v>13.83672852397433</v>
       </c>
       <c r="C40" s="3">
-        <v>12.24613693018126</v>
+        <v>36.208813020424039</v>
       </c>
       <c r="D40" s="3">
-        <v>12.50835802678043</v>
+        <v>5.1788973227628787</v>
       </c>
       <c r="E40" s="3">
-        <v>9.3389549313074447</v>
+        <v>3.9552945799325072</v>
       </c>
       <c r="F40" s="3">
-        <v>4.4912833145667683</v>
+        <v>5.009107236130272</v>
       </c>
       <c r="G40">
-        <v>97.912666436998691</v>
+        <v>64.188840683224029</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1999,13 +1999,13 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K40" s="3">
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2013,22 +2013,22 @@
         <v>11</v>
       </c>
       <c r="B41" s="3">
-        <v>9.3792260348118379</v>
+        <v>1510.8420952656029</v>
       </c>
       <c r="C41" s="3">
-        <v>36.008587214956322</v>
+        <v>98.489848347898032</v>
       </c>
       <c r="D41" s="3">
-        <v>18.252695087551299</v>
+        <v>11.652927915973541</v>
       </c>
       <c r="E41" s="3">
-        <v>4.6067500243555877</v>
+        <v>4.0169085373038964</v>
       </c>
       <c r="F41" s="3">
-        <v>4.9256270429548898</v>
+        <v>2.525476790015424</v>
       </c>
       <c r="G41">
-        <v>73.172885404629923</v>
+        <v>1627.5272568567941</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2043,30 +2043,30 @@
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="3">
-        <v>33.495872473736263</v>
-      </c>
-      <c r="C42" s="3">
-        <v>27.601395829541669</v>
-      </c>
-      <c r="D42" s="3">
-        <v>40.718767200801409</v>
-      </c>
-      <c r="E42" s="3">
-        <v>6.2983122418304918</v>
-      </c>
-      <c r="F42" s="3">
-        <v>4.98917997158284</v>
+      <c r="B42" s="5">
+        <v>6.8814656201375328</v>
+      </c>
+      <c r="C42" s="5">
+        <v>7.8868670856021739</v>
+      </c>
+      <c r="D42" s="5">
+        <v>7.0494962734452749</v>
+      </c>
+      <c r="E42" s="5">
+        <v>4.1183921700344852</v>
+      </c>
+      <c r="F42" s="5">
+        <v>3.8943760468298732</v>
       </c>
       <c r="G42">
-        <v>113.1035277174927</v>
+        <v>29.830597196049339</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2075,10 +2075,10 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>20</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="K42" s="5">
+        <v>1</v>
       </c>
       <c r="L42" t="s">
         <v>13</v>
@@ -2089,22 +2089,22 @@
         <v>11</v>
       </c>
       <c r="B43" s="3">
-        <v>6.1952003989869349</v>
+        <v>24.984053462119</v>
       </c>
       <c r="C43" s="3">
-        <v>20.45759190261462</v>
+        <v>11.36425081975875</v>
       </c>
       <c r="D43" s="3">
-        <v>12.546923413692509</v>
+        <v>10.578343946786349</v>
       </c>
       <c r="E43" s="3">
-        <v>4.26446267760452</v>
+        <v>4.1503884384178154</v>
       </c>
       <c r="F43" s="3">
-        <v>5.5642041602040084</v>
+        <v>3.3035730875619511</v>
       </c>
       <c r="G43">
-        <v>49.028382553102603</v>
+        <v>54.380609754643878</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2127,22 +2127,22 @@
         <v>11</v>
       </c>
       <c r="B44" s="3">
-        <v>124.5958436691772</v>
+        <v>6.1952003989869349</v>
       </c>
       <c r="C44" s="3">
-        <v>39.646045582464403</v>
+        <v>20.45759190261462</v>
       </c>
       <c r="D44" s="3">
-        <v>7.2652929055397557</v>
+        <v>12.546923413692509</v>
       </c>
       <c r="E44" s="3">
-        <v>7.5166322764220306</v>
+        <v>4.26446267760452</v>
       </c>
       <c r="F44" s="3">
-        <v>5.8487548048062674</v>
+        <v>5.5642041602040084</v>
       </c>
       <c r="G44">
-        <v>184.8725692384096</v>
+        <v>49.028382553102603</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2165,22 +2165,22 @@
         <v>11</v>
       </c>
       <c r="B45" s="3">
-        <v>45.413533316493272</v>
+        <v>46.788722059511258</v>
       </c>
       <c r="C45" s="3">
-        <v>26.714302223063591</v>
+        <v>16.817664786340941</v>
       </c>
       <c r="D45" s="3">
-        <v>74.687939090761617</v>
+        <v>5.6561946291919396</v>
       </c>
       <c r="E45" s="3">
-        <v>15.12791765727688</v>
+        <v>4.3565455882173598</v>
       </c>
       <c r="F45" s="3">
-        <v>6.3210911634206237</v>
-      </c>
-      <c r="G45">
-        <v>168.264783451016</v>
+        <v>4.3206054837473662</v>
+      </c>
+      <c r="G45" s="4">
+        <v>77.939732547008873</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2189,36 +2189,36 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="3">
-        <v>4837.6830321010339</v>
-      </c>
-      <c r="C46" s="3">
-        <v>232.5203435652227</v>
-      </c>
-      <c r="D46" s="3">
-        <v>295.79976348367802</v>
-      </c>
-      <c r="E46" s="3">
-        <v>376.33636403781873</v>
-      </c>
-      <c r="F46" s="3">
-        <v>136.85024168323781</v>
+      <c r="B46" s="5">
+        <v>84.859712229630446</v>
+      </c>
+      <c r="C46" s="5">
+        <v>10.128625481186081</v>
+      </c>
+      <c r="D46" s="5">
+        <v>4.4418434731842193</v>
+      </c>
+      <c r="E46" s="5">
+        <v>4.4324786211218292</v>
+      </c>
+      <c r="F46" s="5">
+        <v>4.7947516293723664</v>
       </c>
       <c r="G46">
-        <v>5879.1897448709897</v>
+        <v>108.6574114344949</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2227,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>21</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K46" s="5">
+        <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -2241,22 +2241,22 @@
         <v>11</v>
       </c>
       <c r="B47" s="3">
-        <v>141.55316073081909</v>
+        <v>32.197613376434781</v>
       </c>
       <c r="C47" s="3">
-        <v>21.681387596790621</v>
+        <v>7.7571755683163772</v>
       </c>
       <c r="D47" s="3">
-        <v>4.8033375984384659</v>
+        <v>4.8274411496404364</v>
       </c>
       <c r="E47" s="3">
-        <v>3.2654466581454451</v>
+        <v>4.4490758417398162</v>
       </c>
       <c r="F47" s="3">
-        <v>2.4876958265666591</v>
+        <v>1.963247627797055</v>
       </c>
       <c r="G47">
-        <v>173.7910284107603</v>
+        <v>51.194553563928459</v>
       </c>
       <c r="H47">
         <v>0.25</v>
@@ -2265,13 +2265,13 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -2279,22 +2279,22 @@
         <v>11</v>
       </c>
       <c r="B48" s="3">
-        <v>1510.8420952656029</v>
+        <v>9.8700791018570104</v>
       </c>
       <c r="C48" s="3">
-        <v>98.489848347898032</v>
+        <v>44.278436534846563</v>
       </c>
       <c r="D48" s="3">
-        <v>11.652927915973541</v>
+        <v>3.5191763383174051</v>
       </c>
       <c r="E48" s="3">
-        <v>4.0169085373038964</v>
+        <v>4.4947526437495906</v>
       </c>
       <c r="F48" s="3">
-        <v>2.525476790015424</v>
+        <v>5.732381999212647</v>
       </c>
       <c r="G48">
-        <v>1627.5272568567941</v>
+        <v>67.894826617983199</v>
       </c>
       <c r="H48">
         <v>0.25</v>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         <v>11</v>
       </c>
       <c r="B49" s="3">
-        <v>9.1423725519517021</v>
+        <v>32.019604691907404</v>
       </c>
       <c r="C49" s="3">
-        <v>49.262621402391559</v>
+        <v>7.5743914205127094</v>
       </c>
       <c r="D49" s="3">
-        <v>6.4955273300751522</v>
+        <v>3.481785322927907</v>
       </c>
       <c r="E49" s="3">
-        <v>3.3315029983990621</v>
+        <v>4.5514861415628021</v>
       </c>
       <c r="F49" s="3">
-        <v>4.1246923973224439</v>
-      </c>
-      <c r="G49">
-        <v>72.356716680139925</v>
+        <v>3.4093491938226581</v>
+      </c>
+      <c r="G49" s="4">
+        <v>51.03661677073346</v>
       </c>
       <c r="H49">
         <v>0.25</v>
@@ -2341,13 +2341,13 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -2355,22 +2355,22 @@
         <v>11</v>
       </c>
       <c r="B50" s="3">
-        <v>9.1423725519517021</v>
+        <v>59.18702226324173</v>
       </c>
       <c r="C50" s="3">
-        <v>49.262621402391559</v>
+        <v>23.71509921756196</v>
       </c>
       <c r="D50" s="3">
-        <v>6.4955273300751522</v>
+        <v>6.8045580041998353</v>
       </c>
       <c r="E50" s="3">
-        <v>3.3315029983990621</v>
+        <v>4.5717358916443658</v>
       </c>
       <c r="F50" s="3">
-        <v>4.1246923973224439</v>
-      </c>
-      <c r="G50">
-        <v>72.356716680139925</v>
+        <v>6.5597581520766379</v>
+      </c>
+      <c r="G50" s="4">
+        <v>100.8381735287245</v>
       </c>
       <c r="H50">
         <v>0.25</v>
@@ -2379,13 +2379,13 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K50" s="3">
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -2393,22 +2393,22 @@
         <v>11</v>
       </c>
       <c r="B51" s="3">
-        <v>9.1423725519517021</v>
+        <v>9.3792260348118379</v>
       </c>
       <c r="C51" s="3">
-        <v>49.262621402391559</v>
+        <v>36.008587214956322</v>
       </c>
       <c r="D51" s="3">
-        <v>6.4955273300751522</v>
+        <v>18.252695087551299</v>
       </c>
       <c r="E51" s="3">
-        <v>3.3315029983990621</v>
+        <v>4.6067500243555877</v>
       </c>
       <c r="F51" s="3">
-        <v>4.1246923973224439</v>
+        <v>4.9256270429548898</v>
       </c>
       <c r="G51">
-        <v>72.356716680139925</v>
+        <v>73.172885404629923</v>
       </c>
       <c r="H51">
         <v>0.25</v>
@@ -2417,36 +2417,36 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K51" s="3">
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="3">
-        <v>9.1423725519517021</v>
-      </c>
-      <c r="C52" s="3">
-        <v>49.262621402391559</v>
-      </c>
-      <c r="D52" s="3">
-        <v>6.4955273300751522</v>
-      </c>
-      <c r="E52" s="3">
-        <v>3.3315029983990621</v>
-      </c>
-      <c r="F52" s="3">
-        <v>4.1246923973224439</v>
+      <c r="B52" s="5">
+        <v>25.47603913446526</v>
+      </c>
+      <c r="C52" s="5">
+        <v>46.844639011708409</v>
+      </c>
+      <c r="D52" s="5">
+        <v>24.09321079638358</v>
+      </c>
+      <c r="E52" s="5">
+        <v>4.7770323653553017</v>
+      </c>
+      <c r="F52" s="5">
+        <v>3.8273319625299629</v>
       </c>
       <c r="G52">
-        <v>72.356716680139925</v>
+        <v>105.0182532704425</v>
       </c>
       <c r="H52">
         <v>0.25</v>
@@ -2455,13 +2455,13 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="K52" s="5">
+        <v>1</v>
       </c>
       <c r="L52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -2469,22 +2469,22 @@
         <v>11</v>
       </c>
       <c r="B53" s="3">
-        <v>9.1423725519517021</v>
+        <v>10.195056699910131</v>
       </c>
       <c r="C53" s="3">
-        <v>49.262621402391559</v>
+        <v>18.238512795999078</v>
       </c>
       <c r="D53" s="3">
-        <v>6.4955273300751522</v>
+        <v>3.150694684280464</v>
       </c>
       <c r="E53" s="3">
-        <v>3.3315029983990621</v>
+        <v>4.8029734073623791</v>
       </c>
       <c r="F53" s="3">
-        <v>4.1246923973224439</v>
+        <v>8.170898669908679</v>
       </c>
       <c r="G53">
-        <v>72.356716680139925</v>
+        <v>44.558136257460731</v>
       </c>
       <c r="H53">
         <v>0.25</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K53" s="3">
         <v>0</v>
@@ -2507,22 +2507,22 @@
         <v>11</v>
       </c>
       <c r="B54" s="3">
-        <v>9.1423725519517021</v>
+        <v>16.793566285724769</v>
       </c>
       <c r="C54" s="3">
-        <v>49.262621402391559</v>
+        <v>24.156830356014719</v>
       </c>
       <c r="D54" s="3">
-        <v>6.4955273300751522</v>
+        <v>10.21868058512071</v>
       </c>
       <c r="E54" s="3">
-        <v>3.3315029983990621</v>
+        <v>4.8859648354187586</v>
       </c>
       <c r="F54" s="3">
-        <v>4.1246923973224439</v>
+        <v>5.9741901484016582</v>
       </c>
       <c r="G54">
-        <v>72.356716680139925</v>
+        <v>62.029232210680597</v>
       </c>
       <c r="H54">
         <v>0.25</v>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -2545,22 +2545,22 @@
         <v>11</v>
       </c>
       <c r="B55" s="3">
-        <v>9.1423725519517021</v>
+        <v>147.29558812805399</v>
       </c>
       <c r="C55" s="3">
-        <v>49.262621402391559</v>
+        <v>19.061077960631039</v>
       </c>
       <c r="D55" s="3">
-        <v>6.4955273300751522</v>
+        <v>13.50394444836347</v>
       </c>
       <c r="E55" s="3">
-        <v>3.3315029983990621</v>
+        <v>5.0953695374811518</v>
       </c>
       <c r="F55" s="3">
-        <v>4.1246923973224439</v>
-      </c>
-      <c r="G55">
-        <v>72.356716680139925</v>
+        <v>3.41116354291553</v>
+      </c>
+      <c r="G55" s="4">
+        <v>188.36714361744529</v>
       </c>
       <c r="H55">
         <v>0.25</v>
@@ -2569,36 +2569,36 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K55" s="3">
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="3">
-        <v>9.1423725519517021</v>
-      </c>
-      <c r="C56" s="3">
-        <v>49.262621402391559</v>
-      </c>
-      <c r="D56" s="3">
-        <v>6.4955273300751522</v>
-      </c>
-      <c r="E56" s="3">
-        <v>3.3315029983990621</v>
-      </c>
-      <c r="F56" s="3">
-        <v>4.1246923973224439</v>
+      <c r="B56" s="5">
+        <v>14.90924229690091</v>
+      </c>
+      <c r="C56" s="5">
+        <v>8.6369334700549452</v>
+      </c>
+      <c r="D56" s="5">
+        <v>8.3581198145589823</v>
+      </c>
+      <c r="E56" s="5">
+        <v>5.1928456779694159</v>
+      </c>
+      <c r="F56" s="5">
+        <v>3.6010833449977651</v>
       </c>
       <c r="G56">
-        <v>72.356716680139925</v>
+        <v>40.698224604482022</v>
       </c>
       <c r="H56">
         <v>0.25</v>
@@ -2607,36 +2607,36 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>17</v>
-      </c>
-      <c r="K56" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K56" s="5">
+        <v>1</v>
       </c>
       <c r="L56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="3">
-        <v>9.1423725519517021</v>
-      </c>
-      <c r="C57" s="3">
-        <v>49.262621402391559</v>
-      </c>
-      <c r="D57" s="3">
-        <v>6.4955273300751522</v>
-      </c>
-      <c r="E57" s="3">
-        <v>3.3315029983990621</v>
-      </c>
-      <c r="F57" s="3">
-        <v>4.1246923973224439</v>
+      <c r="B57" s="5">
+        <v>16.693554913506539</v>
+      </c>
+      <c r="C57" s="5">
+        <v>6.1692451928224772</v>
+      </c>
+      <c r="D57" s="5">
+        <v>13.09019575034135</v>
+      </c>
+      <c r="E57" s="5">
+        <v>5.2427272059822823</v>
+      </c>
+      <c r="F57" s="5">
+        <v>2.7178182162646598</v>
       </c>
       <c r="G57">
-        <v>72.356716680139925</v>
+        <v>43.913541278917307</v>
       </c>
       <c r="H57">
         <v>0.25</v>
@@ -2645,36 +2645,36 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>22</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K57" s="5">
+        <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="3">
-        <v>13.83672852397433</v>
-      </c>
-      <c r="C58" s="3">
-        <v>36.208813020424039</v>
-      </c>
-      <c r="D58" s="3">
-        <v>5.1788973227628787</v>
-      </c>
-      <c r="E58" s="3">
-        <v>3.9552945799325072</v>
-      </c>
-      <c r="F58" s="3">
-        <v>5.009107236130272</v>
+      <c r="B58" s="5">
+        <v>457.03996017619971</v>
+      </c>
+      <c r="C58" s="5">
+        <v>44.015525694802292</v>
+      </c>
+      <c r="D58" s="5">
+        <v>9.8243584285339924</v>
+      </c>
+      <c r="E58" s="5">
+        <v>5.3930349572496059</v>
+      </c>
+      <c r="F58" s="5">
+        <v>3.4438500641397809</v>
       </c>
       <c r="G58">
-        <v>64.188840683224029</v>
+        <v>519.7167293209252</v>
       </c>
       <c r="H58">
         <v>0.25</v>
@@ -2683,13 +2683,13 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>14</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="K58" s="5">
+        <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -2697,22 +2697,22 @@
         <v>11</v>
       </c>
       <c r="B59" s="3">
-        <v>9.8700791018570104</v>
+        <v>110.4074992312234</v>
       </c>
       <c r="C59" s="3">
-        <v>44.278436534846563</v>
+        <v>30.709653545106448</v>
       </c>
       <c r="D59" s="3">
-        <v>3.5191763383174051</v>
+        <v>18.848204847412049</v>
       </c>
       <c r="E59" s="3">
-        <v>4.4947526437495906</v>
+        <v>5.4007664871512038</v>
       </c>
       <c r="F59" s="3">
-        <v>5.732381999212647</v>
+        <v>2.819460508859001</v>
       </c>
       <c r="G59">
-        <v>67.894826617983199</v>
+        <v>168.18558461975209</v>
       </c>
       <c r="H59">
         <v>0.25</v>
@@ -2721,36 +2721,36 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="3">
-        <v>569.57352707053337</v>
-      </c>
-      <c r="C60" s="3">
-        <v>32.410604208077253</v>
-      </c>
-      <c r="D60" s="3">
-        <v>9.543014412146432</v>
-      </c>
-      <c r="E60" s="3">
-        <v>6.5828387930847407</v>
-      </c>
-      <c r="F60" s="3">
-        <v>5.8265637491416236</v>
+      <c r="B60" s="5">
+        <v>13.20168270722435</v>
+      </c>
+      <c r="C60" s="5">
+        <v>10.20428040502882</v>
+      </c>
+      <c r="D60" s="5">
+        <v>22.405867243862541</v>
+      </c>
+      <c r="E60" s="5">
+        <v>5.4312530619258066</v>
+      </c>
+      <c r="F60" s="5">
+        <v>4.1815463731769213</v>
       </c>
       <c r="G60">
-        <v>623.93654823298345</v>
+        <v>55.424629791218443</v>
       </c>
       <c r="H60">
         <v>0.25</v>
@@ -2759,36 +2759,36 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>15</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K60" s="5">
+        <v>1</v>
       </c>
       <c r="L60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="3">
-        <v>16.793566285724769</v>
-      </c>
-      <c r="C61" s="3">
-        <v>24.156830356014719</v>
-      </c>
-      <c r="D61" s="3">
-        <v>10.21868058512071</v>
-      </c>
-      <c r="E61" s="3">
-        <v>4.8859648354187586</v>
-      </c>
-      <c r="F61" s="3">
-        <v>5.9741901484016582</v>
+      <c r="B61" s="5">
+        <v>21.05584122300046</v>
+      </c>
+      <c r="C61" s="5">
+        <v>8.2009161950980811</v>
+      </c>
+      <c r="D61" s="5">
+        <v>6.9104508989174516</v>
+      </c>
+      <c r="E61" s="5">
+        <v>5.6072857919062837</v>
+      </c>
+      <c r="F61" s="5">
+        <v>3.028162437013882</v>
       </c>
       <c r="G61">
-        <v>62.029232210680597</v>
+        <v>44.802656545936138</v>
       </c>
       <c r="H61">
         <v>0.25</v>
@@ -2797,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>6</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K61" s="5">
+        <v>1</v>
       </c>
       <c r="L61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -2811,22 +2811,22 @@
         <v>11</v>
       </c>
       <c r="B62" s="3">
-        <v>10.195056699910131</v>
+        <v>34.836734295802692</v>
       </c>
       <c r="C62" s="3">
-        <v>18.238512795999078</v>
+        <v>18.625505741744298</v>
       </c>
       <c r="D62" s="3">
-        <v>3.150694684280464</v>
+        <v>28.715301518210129</v>
       </c>
       <c r="E62" s="3">
-        <v>4.8029734073623791</v>
+        <v>5.6604220132313223</v>
       </c>
       <c r="F62" s="3">
-        <v>8.170898669908679</v>
-      </c>
-      <c r="G62">
-        <v>44.558136257460731</v>
+        <v>3.935215210309579</v>
+      </c>
+      <c r="G62" s="4">
+        <v>91.773178779298064</v>
       </c>
       <c r="H62">
         <v>0.25</v>
@@ -2835,13 +2835,13 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -2849,22 +2849,22 @@
         <v>11</v>
       </c>
       <c r="B63" s="3">
-        <v>104.62819268465159</v>
+        <v>132.228909589122</v>
       </c>
       <c r="C63" s="3">
-        <v>57.072062178498392</v>
+        <v>13.38317636968212</v>
       </c>
       <c r="D63" s="3">
-        <v>6.2860584729123774</v>
+        <v>29.535408351512491</v>
       </c>
       <c r="E63" s="3">
-        <v>8.2052543985970736</v>
+        <v>6.0045239324720541</v>
       </c>
       <c r="F63" s="3">
-        <v>8.2716480140357653</v>
+        <v>3.3833165925744382</v>
       </c>
       <c r="G63">
-        <v>184.46321574869529</v>
+        <v>184.5353348353631</v>
       </c>
       <c r="H63">
         <v>0.25</v>
@@ -2873,36 +2873,36 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K63" s="3">
         <v>0</v>
       </c>
       <c r="L63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="3">
-        <v>103.1051866704552</v>
-      </c>
-      <c r="C64" s="3">
-        <v>132.0829729730093</v>
-      </c>
-      <c r="D64" s="3">
-        <v>12.23183595219926</v>
-      </c>
-      <c r="E64" s="3">
-        <v>11.21303034465768</v>
-      </c>
-      <c r="F64" s="3">
-        <v>8.5322402863728257</v>
+      <c r="B64" s="5">
+        <v>46.180510703871079</v>
+      </c>
+      <c r="C64" s="5">
+        <v>11.25999092135485</v>
+      </c>
+      <c r="D64" s="5">
+        <v>4.8264683145933809</v>
+      </c>
+      <c r="E64" s="5">
+        <v>6.0173827607743862</v>
+      </c>
+      <c r="F64" s="5">
+        <v>6.5317830367794274</v>
       </c>
       <c r="G64">
-        <v>267.16526622669431</v>
+        <v>74.816135737373116</v>
       </c>
       <c r="H64">
         <v>0.25</v>
@@ -2913,11 +2913,11 @@
       <c r="J64">
         <v>10</v>
       </c>
-      <c r="K64" s="3">
-        <v>0</v>
+      <c r="K64" s="5">
+        <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -2925,22 +2925,22 @@
         <v>11</v>
       </c>
       <c r="B65" s="3">
-        <v>72.934070181495244</v>
+        <v>11.07093288596921</v>
       </c>
       <c r="C65" s="3">
-        <v>26.297325639830301</v>
+        <v>29.389589158945899</v>
       </c>
       <c r="D65" s="3">
-        <v>24.292293133988242</v>
+        <v>5.9259868407754714</v>
       </c>
       <c r="E65" s="3">
-        <v>10.30820359933395</v>
+        <v>6.1123274142991066</v>
       </c>
       <c r="F65" s="3">
-        <v>12.82651853455496</v>
-      </c>
-      <c r="G65">
-        <v>146.6584110892027</v>
+        <v>9.3326733120411127</v>
+      </c>
+      <c r="G65" s="4">
+        <v>61.831509612030807</v>
       </c>
       <c r="H65">
         <v>0.25</v>
@@ -2949,13 +2949,13 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K65" s="3">
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -2963,22 +2963,22 @@
         <v>11</v>
       </c>
       <c r="B66" s="3">
-        <v>156.73928989626941</v>
+        <v>36.363476861966817</v>
       </c>
       <c r="C66" s="3">
-        <v>46.37723162553425</v>
+        <v>21.90045295565783</v>
       </c>
       <c r="D66" s="3">
-        <v>24.320384377781259</v>
+        <v>56.222830580964128</v>
       </c>
       <c r="E66" s="3">
-        <v>25.13703475394469</v>
+        <v>6.239673463071437</v>
       </c>
       <c r="F66" s="3">
-        <v>34.388880435657242</v>
+        <v>3.2103158488188459</v>
       </c>
       <c r="G66">
-        <v>286.96282108918672</v>
+        <v>123.93674971047901</v>
       </c>
       <c r="H66">
         <v>0.25</v>
@@ -2987,36 +2987,36 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="3">
-        <v>24.09598084295509</v>
-      </c>
-      <c r="C67" s="3">
-        <v>46.02564548352823</v>
-      </c>
-      <c r="D67" s="3">
-        <v>26.621712504323561</v>
-      </c>
-      <c r="E67" s="3">
-        <v>45.398046518585318</v>
-      </c>
-      <c r="F67" s="3">
-        <v>80.309917654816019</v>
+      <c r="B67" s="5">
+        <v>54.594060464891477</v>
+      </c>
+      <c r="C67" s="5">
+        <v>30.795114500462919</v>
+      </c>
+      <c r="D67" s="5">
+        <v>13.5523093076287</v>
+      </c>
+      <c r="E67" s="5">
+        <v>6.2575849145730418</v>
+      </c>
+      <c r="F67" s="5">
+        <v>3.7008009843875822</v>
       </c>
       <c r="G67">
-        <v>222.4513030042082</v>
+        <v>108.8998701719437</v>
       </c>
       <c r="H67">
         <v>0.25</v>
@@ -3025,13 +3025,13 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>23</v>
-      </c>
-      <c r="K67" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K67" s="5">
+        <v>1</v>
       </c>
       <c r="L67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3039,22 +3039,22 @@
         <v>11</v>
       </c>
       <c r="B68" s="3">
-        <v>4656.8370087382773</v>
+        <v>64.648352503607256</v>
       </c>
       <c r="C68" s="3">
-        <v>1594.232871633104</v>
+        <v>13.461301450437549</v>
       </c>
       <c r="D68" s="3">
-        <v>490.75170901551252</v>
+        <v>16.44189652175773</v>
       </c>
       <c r="E68" s="3">
-        <v>428.82891076199701</v>
+        <v>6.259058314465034</v>
       </c>
       <c r="F68" s="3">
-        <v>281.56260069794808</v>
-      </c>
-      <c r="G68">
-        <v>7452.2131008468386</v>
+        <v>2.890920044542332</v>
+      </c>
+      <c r="G68" s="4">
+        <v>103.70152883480991</v>
       </c>
       <c r="H68">
         <v>0.25</v>
@@ -3063,36 +3063,36 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="K68" s="3">
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="5">
-        <v>7.1014643547901404</v>
-      </c>
-      <c r="C69" s="5">
-        <v>7.0570206032469356</v>
-      </c>
-      <c r="D69" s="5">
-        <v>5.2176182079177336</v>
-      </c>
-      <c r="E69" s="5">
-        <v>2.9025752279603538</v>
-      </c>
-      <c r="F69" s="5">
-        <v>2.7961829611250129</v>
+      <c r="B69" s="3">
+        <v>33.495872473736263</v>
+      </c>
+      <c r="C69" s="3">
+        <v>27.601395829541669</v>
+      </c>
+      <c r="D69" s="3">
+        <v>40.718767200801409</v>
+      </c>
+      <c r="E69" s="3">
+        <v>6.2983122418304918</v>
+      </c>
+      <c r="F69" s="3">
+        <v>4.98917997158284</v>
       </c>
       <c r="G69">
-        <v>25.07486135504017</v>
+        <v>113.1035277174927</v>
       </c>
       <c r="H69">
         <v>0.25</v>
@@ -3101,36 +3101,36 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>17</v>
-      </c>
-      <c r="K69" s="5">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="5">
-        <v>21.05584122300046</v>
-      </c>
-      <c r="C70" s="5">
-        <v>8.2009161950980811</v>
-      </c>
-      <c r="D70" s="5">
-        <v>6.9104508989174516</v>
-      </c>
-      <c r="E70" s="5">
-        <v>5.6072857919062837</v>
-      </c>
-      <c r="F70" s="5">
-        <v>3.028162437013882</v>
-      </c>
-      <c r="G70">
-        <v>44.802656545936138</v>
+      <c r="B70" s="3">
+        <v>48.595419593628847</v>
+      </c>
+      <c r="C70" s="3">
+        <v>125.99493091796781</v>
+      </c>
+      <c r="D70" s="3">
+        <v>9.4963894978504886</v>
+      </c>
+      <c r="E70" s="3">
+        <v>6.3411665565943007</v>
+      </c>
+      <c r="F70" s="3">
+        <v>4.6148597604279402</v>
+      </c>
+      <c r="G70" s="4">
+        <v>195.0427663264694</v>
       </c>
       <c r="H70">
         <v>0.25</v>
@@ -3139,10 +3139,10 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70" s="5">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
       </c>
       <c r="L70" t="s">
         <v>12</v>
@@ -3152,23 +3152,23 @@
       <c r="A71" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="5">
-        <v>24.568665974587681</v>
-      </c>
-      <c r="C71" s="5">
-        <v>10.021426120628281</v>
-      </c>
-      <c r="D71" s="5">
-        <v>8.1194652823228814</v>
-      </c>
-      <c r="E71" s="5">
-        <v>24.729649750494861</v>
-      </c>
-      <c r="F71" s="5">
-        <v>12.272642662364101</v>
-      </c>
-      <c r="G71">
-        <v>79.711849790397793</v>
+      <c r="B71" s="3">
+        <v>25.856461765696089</v>
+      </c>
+      <c r="C71" s="3">
+        <v>9.7485236264731192</v>
+      </c>
+      <c r="D71" s="3">
+        <v>6.272662199856434</v>
+      </c>
+      <c r="E71" s="3">
+        <v>6.3699035524919774</v>
+      </c>
+      <c r="F71" s="3">
+        <v>12.811001759946381</v>
+      </c>
+      <c r="G71" s="4">
+        <v>61.058552904464008</v>
       </c>
       <c r="H71">
         <v>0.25</v>
@@ -3177,10 +3177,10 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>9</v>
-      </c>
-      <c r="K71" s="5">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K71" s="3">
+        <v>0</v>
       </c>
       <c r="L71" t="s">
         <v>12</v>
@@ -3190,23 +3190,23 @@
       <c r="A72" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="5">
-        <v>30.405027340614708</v>
-      </c>
-      <c r="C72" s="5">
-        <v>17.98356822436115</v>
-      </c>
-      <c r="D72" s="5">
-        <v>24.975347367444559</v>
-      </c>
-      <c r="E72" s="5">
-        <v>13.359453017258151</v>
-      </c>
-      <c r="F72" s="5">
-        <v>8.252652572142761</v>
+      <c r="B72" s="3">
+        <v>569.57352707053337</v>
+      </c>
+      <c r="C72" s="3">
+        <v>32.410604208077253</v>
+      </c>
+      <c r="D72" s="3">
+        <v>9.543014412146432</v>
+      </c>
+      <c r="E72" s="3">
+        <v>6.5828387930847407</v>
+      </c>
+      <c r="F72" s="3">
+        <v>5.8265637491416236</v>
       </c>
       <c r="G72">
-        <v>94.976048521821326</v>
+        <v>623.93654823298345</v>
       </c>
       <c r="H72">
         <v>0.25</v>
@@ -3215,13 +3215,13 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>28</v>
-      </c>
-      <c r="K72" s="5">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3229,22 +3229,22 @@
         <v>11</v>
       </c>
       <c r="B73" s="5">
-        <v>32.02723363058697</v>
+        <v>197.20279375110459</v>
       </c>
       <c r="C73" s="5">
-        <v>6.9269646634922371</v>
+        <v>72.594156071826873</v>
       </c>
       <c r="D73" s="5">
-        <v>3.6219843287375388</v>
+        <v>16.24838794615188</v>
       </c>
       <c r="E73" s="5">
-        <v>3.0679022863275822</v>
+        <v>6.6751200044779724</v>
       </c>
       <c r="F73" s="5">
-        <v>2.8725223053657229</v>
+        <v>5.0725201993002367</v>
       </c>
       <c r="G73">
-        <v>48.516607214510039</v>
+        <v>297.79297797286148</v>
       </c>
       <c r="H73">
         <v>0.25</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K73" s="5">
         <v>1</v>
@@ -3267,22 +3267,22 @@
         <v>11</v>
       </c>
       <c r="B74" s="5">
-        <v>38.023054789676038</v>
+        <v>14.364462723947099</v>
       </c>
       <c r="C74" s="5">
-        <v>13.73735210312422</v>
+        <v>6.7844546091972058</v>
       </c>
       <c r="D74" s="5">
-        <v>7.3755058511596534</v>
+        <v>17.087886347279149</v>
       </c>
       <c r="E74" s="5">
-        <v>10.9374593232703</v>
+        <v>6.6864482707338748</v>
       </c>
       <c r="F74" s="5">
-        <v>9.9172855320008857</v>
+        <v>4.6518423623712826</v>
       </c>
       <c r="G74">
-        <v>79.990657599231099</v>
+        <v>49.575094313528624</v>
       </c>
       <c r="H74">
         <v>0.25</v>
@@ -3291,13 +3291,13 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="K74" s="5">
         <v>1</v>
       </c>
       <c r="L74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -3305,22 +3305,22 @@
         <v>11</v>
       </c>
       <c r="B75" s="5">
-        <v>42.043753270365578</v>
+        <v>167.1696054906393</v>
       </c>
       <c r="C75" s="5">
-        <v>37.469409189742557</v>
+        <v>46.682978744682877</v>
       </c>
       <c r="D75" s="5">
-        <v>14.762288410824301</v>
+        <v>10.52614589083031</v>
       </c>
       <c r="E75" s="5">
-        <v>11.43532639587726</v>
+        <v>6.9262257044326541</v>
       </c>
       <c r="F75" s="5">
-        <v>20.984203379410321</v>
+        <v>6.5111185939063692</v>
       </c>
       <c r="G75">
-        <v>126.69498064622</v>
+        <v>237.81607442449149</v>
       </c>
       <c r="H75">
         <v>0.25</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="K75" s="5">
         <v>1</v>
@@ -3343,22 +3343,22 @@
         <v>11</v>
       </c>
       <c r="B76" s="5">
-        <v>46.180510703871079</v>
+        <v>21.843439292140509</v>
       </c>
       <c r="C76" s="5">
-        <v>11.25999092135485</v>
+        <v>6.4571373236517378</v>
       </c>
       <c r="D76" s="5">
-        <v>4.8264683145933809</v>
+        <v>2.7879115492744271</v>
       </c>
       <c r="E76" s="5">
-        <v>6.0173827607743862</v>
+        <v>7.0563471301055687</v>
       </c>
       <c r="F76" s="5">
-        <v>6.5317830367794274</v>
+        <v>3.2589871201476468</v>
       </c>
       <c r="G76">
-        <v>74.816135737373116</v>
+        <v>41.403822415319887</v>
       </c>
       <c r="H76">
         <v>0.25</v>
@@ -3367,13 +3367,13 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K76" s="5">
         <v>1</v>
       </c>
       <c r="L76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -3381,22 +3381,22 @@
         <v>11</v>
       </c>
       <c r="B77" s="5">
-        <v>46.376945305535607</v>
+        <v>54.642516534940128</v>
       </c>
       <c r="C77" s="5">
-        <v>18.653234496852839</v>
+        <v>17.79898931614807</v>
       </c>
       <c r="D77" s="5">
-        <v>25.59523107332647</v>
+        <v>7.1725658532150671</v>
       </c>
       <c r="E77" s="5">
-        <v>13.37412196631097</v>
+        <v>7.1847953829573612</v>
       </c>
       <c r="F77" s="5">
-        <v>11.1483084779642</v>
+        <v>6.7056836350308142</v>
       </c>
       <c r="G77">
-        <v>115.14784131999011</v>
+        <v>93.504550722291413</v>
       </c>
       <c r="H77">
         <v>0.25</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K77" s="5">
         <v>1</v>
       </c>
       <c r="L77" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -3419,22 +3419,22 @@
         <v>11</v>
       </c>
       <c r="B78" s="5">
-        <v>54.594060464891477</v>
+        <v>20.66599112289768</v>
       </c>
       <c r="C78" s="5">
-        <v>30.795114500462919</v>
+        <v>10.12983704204151</v>
       </c>
       <c r="D78" s="5">
-        <v>13.5523093076287</v>
+        <v>6.1897501490881268</v>
       </c>
       <c r="E78" s="5">
-        <v>6.2575849145730418</v>
+        <v>7.2533225994151493</v>
       </c>
       <c r="F78" s="5">
-        <v>3.7008009843875822</v>
+        <v>8.2131494742253359</v>
       </c>
       <c r="G78">
-        <v>108.8998701719437</v>
+        <v>52.452050387667789</v>
       </c>
       <c r="H78">
         <v>0.25</v>
@@ -3443,36 +3443,36 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K78" s="5">
         <v>1</v>
       </c>
       <c r="L78" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="5">
-        <v>55.407450976842803</v>
-      </c>
-      <c r="C79" s="5">
-        <v>37.711815604168542</v>
-      </c>
-      <c r="D79" s="5">
-        <v>29.84420582515104</v>
-      </c>
-      <c r="E79" s="5">
-        <v>24.25073807054487</v>
-      </c>
-      <c r="F79" s="5">
-        <v>16.73049070195669</v>
+      <c r="B79" s="3">
+        <v>124.5958436691772</v>
+      </c>
+      <c r="C79" s="3">
+        <v>39.646045582464403</v>
+      </c>
+      <c r="D79" s="3">
+        <v>7.2652929055397557</v>
+      </c>
+      <c r="E79" s="3">
+        <v>7.5166322764220306</v>
+      </c>
+      <c r="F79" s="3">
+        <v>5.8487548048062674</v>
       </c>
       <c r="G79">
-        <v>163.94470117866391</v>
+        <v>184.8725692384096</v>
       </c>
       <c r="H79">
         <v>0.25</v>
@@ -3481,36 +3481,36 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>15</v>
-      </c>
-      <c r="K79" s="5">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K79" s="3">
+        <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="5">
-        <v>58.474410227069683</v>
-      </c>
-      <c r="C80" s="5">
-        <v>21.050332171275439</v>
-      </c>
-      <c r="D80" s="5">
-        <v>4.8664001817884888</v>
-      </c>
-      <c r="E80" s="5">
-        <v>2.199052629497896</v>
-      </c>
-      <c r="F80" s="5">
-        <v>1.1143634069051569</v>
-      </c>
-      <c r="G80">
-        <v>87.704558616536659</v>
+      <c r="B80" s="3">
+        <v>70.169975700814774</v>
+      </c>
+      <c r="C80" s="3">
+        <v>12.20993944914834</v>
+      </c>
+      <c r="D80" s="3">
+        <v>8.2735119846047347</v>
+      </c>
+      <c r="E80" s="3">
+        <v>7.9010163858953506</v>
+      </c>
+      <c r="F80" s="3">
+        <v>7.7220249326030812</v>
+      </c>
+      <c r="G80" s="4">
+        <v>106.2764684530663</v>
       </c>
       <c r="H80">
         <v>0.25</v>
@@ -3519,10 +3519,10 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>6</v>
-      </c>
-      <c r="K80" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K80" s="3">
+        <v>0</v>
       </c>
       <c r="L80" t="s">
         <v>12</v>
@@ -3533,22 +3533,22 @@
         <v>11</v>
       </c>
       <c r="B81" s="5">
-        <v>83.15782538806819</v>
+        <v>214.95359623686011</v>
       </c>
       <c r="C81" s="5">
-        <v>22.308383291854401</v>
+        <v>50.315682788998053</v>
       </c>
       <c r="D81" s="5">
-        <v>4.6310989206127724</v>
+        <v>13.322878634406029</v>
       </c>
       <c r="E81" s="5">
-        <v>3.3848079504366528</v>
+        <v>7.9635131153227423</v>
       </c>
       <c r="F81" s="5">
-        <v>3.6977010422816501</v>
+        <v>7.5231953436968206</v>
       </c>
       <c r="G81">
-        <v>117.1798165932537</v>
+        <v>294.0788661192837</v>
       </c>
       <c r="H81">
         <v>0.25</v>
@@ -3557,36 +3557,36 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K81" s="5">
         <v>1</v>
       </c>
       <c r="L81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="5">
-        <v>95.416197231802983</v>
-      </c>
-      <c r="C82" s="5">
-        <v>28.89526964845232</v>
-      </c>
-      <c r="D82" s="5">
-        <v>14.02293459251595</v>
-      </c>
-      <c r="E82" s="5">
-        <v>13.01356997791726</v>
-      </c>
-      <c r="F82" s="5">
-        <v>5.3010428587259861</v>
+      <c r="B82" s="3">
+        <v>104.62819268465159</v>
+      </c>
+      <c r="C82" s="3">
+        <v>57.072062178498392</v>
+      </c>
+      <c r="D82" s="3">
+        <v>6.2860584729123774</v>
+      </c>
+      <c r="E82" s="3">
+        <v>8.2052543985970736</v>
+      </c>
+      <c r="F82" s="3">
+        <v>8.2716480140357653</v>
       </c>
       <c r="G82">
-        <v>156.6490143094145</v>
+        <v>184.46321574869529</v>
       </c>
       <c r="H82">
         <v>0.25</v>
@@ -3595,13 +3595,13 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>24</v>
-      </c>
-      <c r="K82" s="5">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K82" s="3">
+        <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -3609,22 +3609,22 @@
         <v>11</v>
       </c>
       <c r="B83" s="5">
-        <v>105.88281981495091</v>
+        <v>56.502424577562351</v>
       </c>
       <c r="C83" s="5">
-        <v>30.63553091011509</v>
+        <v>16.774027546371371</v>
       </c>
       <c r="D83" s="5">
-        <v>10.379006526702851</v>
+        <v>7.6832568989689527</v>
       </c>
       <c r="E83" s="5">
-        <v>3.4606796165653142</v>
+        <v>8.3648183534586522</v>
       </c>
       <c r="F83" s="5">
-        <v>2.058876261333447</v>
+        <v>5.6003308668755283</v>
       </c>
       <c r="G83">
-        <v>152.41691312966759</v>
+        <v>94.924858243236841</v>
       </c>
       <c r="H83">
         <v>0.25</v>
@@ -3633,36 +3633,36 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K83" s="5">
         <v>1</v>
       </c>
       <c r="L83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="5">
-        <v>121.546107093449</v>
-      </c>
-      <c r="C84" s="5">
-        <v>17.259817482442401</v>
-      </c>
-      <c r="D84" s="5">
-        <v>18.233136811583599</v>
-      </c>
-      <c r="E84" s="5">
-        <v>22.728376217995351</v>
-      </c>
-      <c r="F84" s="5">
-        <v>25.17069831431975</v>
+      <c r="B84" s="3">
+        <v>26.023898037096149</v>
+      </c>
+      <c r="C84" s="3">
+        <v>17.90090111806623</v>
+      </c>
+      <c r="D84" s="3">
+        <v>68.018149418803631</v>
+      </c>
+      <c r="E84" s="3">
+        <v>8.3769613927095108</v>
+      </c>
+      <c r="F84" s="3">
+        <v>3.399668795868779</v>
       </c>
       <c r="G84">
-        <v>204.93813591979011</v>
+        <v>123.7195787625443</v>
       </c>
       <c r="H84">
         <v>0.25</v>
@@ -3671,13 +3671,13 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>5</v>
-      </c>
-      <c r="K84" s="5">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K84" s="3">
+        <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -3685,22 +3685,22 @@
         <v>11</v>
       </c>
       <c r="B85" s="5">
-        <v>122.0817075054409</v>
+        <v>267.906818110122</v>
       </c>
       <c r="C85" s="5">
-        <v>26.48986766415376</v>
+        <v>96.955117025951552</v>
       </c>
       <c r="D85" s="5">
-        <v>12.98769474048923</v>
+        <v>20.12915388892057</v>
       </c>
       <c r="E85" s="5">
-        <v>17.615919670611511</v>
+        <v>8.4216692146004775</v>
       </c>
       <c r="F85" s="5">
-        <v>28.321539479143912</v>
+        <v>6.3734038112820004</v>
       </c>
       <c r="G85">
-        <v>207.4967290598394</v>
+        <v>399.78616205087673</v>
       </c>
       <c r="H85">
         <v>0.25</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K85" s="5">
         <v>1</v>
       </c>
       <c r="L85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -3723,22 +3723,22 @@
         <v>11</v>
       </c>
       <c r="B86" s="5">
-        <v>128.60664090352631</v>
+        <v>40.720228914738087</v>
       </c>
       <c r="C86" s="5">
-        <v>23.192502061811311</v>
+        <v>6.7160457189148843</v>
       </c>
       <c r="D86" s="5">
-        <v>5.864501666276202</v>
+        <v>5.8882436731579881</v>
       </c>
       <c r="E86" s="5">
-        <v>13.38263718119649</v>
+        <v>8.5453413306891655</v>
       </c>
       <c r="F86" s="5">
-        <v>14.547185283070711</v>
+        <v>7.9765025993519707</v>
       </c>
       <c r="G86">
-        <v>185.59346709588101</v>
+        <v>69.846362236852087</v>
       </c>
       <c r="H86">
         <v>0.25</v>
@@ -3747,36 +3747,36 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="K86" s="5">
         <v>1</v>
       </c>
       <c r="L86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="5">
-        <v>161.06666953465449</v>
-      </c>
-      <c r="C87" s="5">
-        <v>36.087957067190352</v>
-      </c>
-      <c r="D87" s="5">
-        <v>14.738736510620191</v>
-      </c>
-      <c r="E87" s="5">
-        <v>14.61730779487063</v>
-      </c>
-      <c r="F87" s="5">
-        <v>26.529800106111381</v>
-      </c>
-      <c r="G87">
-        <v>253.04047101344699</v>
+      <c r="B87" s="3">
+        <v>152.6141085417116</v>
+      </c>
+      <c r="C87" s="3">
+        <v>43.837199594873447</v>
+      </c>
+      <c r="D87" s="3">
+        <v>7.5344964545998439</v>
+      </c>
+      <c r="E87" s="3">
+        <v>8.7152091109493188</v>
+      </c>
+      <c r="F87" s="3">
+        <v>8.8408079325158138</v>
+      </c>
+      <c r="G87" s="4">
+        <v>221.54182163465001</v>
       </c>
       <c r="H87">
         <v>0.25</v>
@@ -3785,10 +3785,10 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>11</v>
-      </c>
-      <c r="K87" s="5">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="K87" s="3">
+        <v>0</v>
       </c>
       <c r="L87" t="s">
         <v>12</v>
@@ -3799,22 +3799,22 @@
         <v>11</v>
       </c>
       <c r="B88" s="5">
-        <v>167.1696054906393</v>
+        <v>23.449461749916331</v>
       </c>
       <c r="C88" s="5">
-        <v>46.682978744682877</v>
+        <v>13.6722705264176</v>
       </c>
       <c r="D88" s="5">
-        <v>10.52614589083031</v>
+        <v>10.78140970622367</v>
       </c>
       <c r="E88" s="5">
-        <v>6.9262257044326541</v>
+        <v>9.2828745738899343</v>
       </c>
       <c r="F88" s="5">
-        <v>6.5111185939063692</v>
+        <v>7.5744099566417136</v>
       </c>
       <c r="G88">
-        <v>237.81607442449149</v>
+        <v>64.760426513089243</v>
       </c>
       <c r="H88">
         <v>0.25</v>
@@ -3823,36 +3823,36 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K88" s="5">
         <v>1</v>
       </c>
       <c r="L88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="5">
-        <v>174.75156563043399</v>
-      </c>
-      <c r="C89" s="5">
-        <v>81.066935640875514</v>
-      </c>
-      <c r="D89" s="5">
-        <v>58.979090813624289</v>
-      </c>
-      <c r="E89" s="5">
-        <v>72.966641856536214</v>
-      </c>
-      <c r="F89" s="5">
-        <v>38.385345221913227</v>
+      <c r="B89" s="3">
+        <v>59.327933234162799</v>
+      </c>
+      <c r="C89" s="3">
+        <v>12.24613693018126</v>
+      </c>
+      <c r="D89" s="3">
+        <v>12.50835802678043</v>
+      </c>
+      <c r="E89" s="3">
+        <v>9.3389549313074447</v>
+      </c>
+      <c r="F89" s="3">
+        <v>4.4912833145667683</v>
       </c>
       <c r="G89">
-        <v>426.14957916338341</v>
+        <v>97.912666436998691</v>
       </c>
       <c r="H89">
         <v>0.25</v>
@@ -3861,13 +3861,13 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>21</v>
-      </c>
-      <c r="K89" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -3875,22 +3875,22 @@
         <v>11</v>
       </c>
       <c r="B90" s="5">
-        <v>178.82810557431139</v>
+        <v>60.658953246421653</v>
       </c>
       <c r="C90" s="5">
-        <v>73.22459727099087</v>
+        <v>17.03114556956632</v>
       </c>
       <c r="D90" s="5">
-        <v>32.69465485651773</v>
+        <v>17.049517287778979</v>
       </c>
       <c r="E90" s="5">
-        <v>73.538085928013913</v>
+        <v>9.6295405790695412</v>
       </c>
       <c r="F90" s="5">
-        <v>164.8984532662767</v>
+        <v>7.1901307616153058</v>
       </c>
       <c r="G90">
-        <v>523.18389689611058</v>
+        <v>111.5592874444518</v>
       </c>
       <c r="H90">
         <v>0.25</v>
@@ -3899,13 +3899,13 @@
         <v>0</v>
       </c>
       <c r="J90">
+        <v>24</v>
+      </c>
+      <c r="K90" s="5">
+        <v>1</v>
+      </c>
+      <c r="L90" t="s">
         <v>14</v>
-      </c>
-      <c r="K90" s="5">
-        <v>1</v>
-      </c>
-      <c r="L90" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -3913,22 +3913,22 @@
         <v>11</v>
       </c>
       <c r="B91" s="5">
-        <v>193.07396127137039</v>
+        <v>218.1523138297606</v>
       </c>
       <c r="C91" s="5">
-        <v>29.562500568003099</v>
+        <v>48.870510506223553</v>
       </c>
       <c r="D91" s="5">
-        <v>4.7603296293185089</v>
+        <v>9.4647477364009731</v>
       </c>
       <c r="E91" s="5">
-        <v>12.209271020263509</v>
+        <v>10.215222986293069</v>
       </c>
       <c r="F91" s="5">
-        <v>11.752361111237381</v>
+        <v>10.288511190749739</v>
       </c>
       <c r="G91">
-        <v>251.35842360019291</v>
+        <v>296.99130624942802</v>
       </c>
       <c r="H91">
         <v>0.25</v>
@@ -3937,36 +3937,36 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K91" s="5">
         <v>1</v>
       </c>
       <c r="L91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="5">
-        <v>197.20279375110459</v>
-      </c>
-      <c r="C92" s="5">
-        <v>72.594156071826873</v>
-      </c>
-      <c r="D92" s="5">
-        <v>16.24838794615188</v>
-      </c>
-      <c r="E92" s="5">
-        <v>6.6751200044779724</v>
-      </c>
-      <c r="F92" s="5">
-        <v>5.0725201993002367</v>
+      <c r="B92" s="3">
+        <v>72.934070181495244</v>
+      </c>
+      <c r="C92" s="3">
+        <v>26.297325639830301</v>
+      </c>
+      <c r="D92" s="3">
+        <v>24.292293133988242</v>
+      </c>
+      <c r="E92" s="3">
+        <v>10.30820359933395</v>
+      </c>
+      <c r="F92" s="3">
+        <v>12.82651853455496</v>
       </c>
       <c r="G92">
-        <v>297.79297797286148</v>
+        <v>146.6584110892027</v>
       </c>
       <c r="H92">
         <v>0.25</v>
@@ -3975,13 +3975,13 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>13</v>
-      </c>
-      <c r="K92" s="5">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="K92" s="3">
+        <v>0</v>
       </c>
       <c r="L92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -3989,22 +3989,22 @@
         <v>11</v>
       </c>
       <c r="B93" s="5">
-        <v>457.03996017619971</v>
+        <v>16.79417966776035</v>
       </c>
       <c r="C93" s="5">
-        <v>44.015525694802292</v>
+        <v>7.8685272047918362</v>
       </c>
       <c r="D93" s="5">
-        <v>9.8243584285339924</v>
+        <v>23.777728589695251</v>
       </c>
       <c r="E93" s="5">
-        <v>5.3930349572496059</v>
+        <v>10.89522149581167</v>
       </c>
       <c r="F93" s="5">
-        <v>3.4438500641397809</v>
+        <v>5.1421514978217449</v>
       </c>
       <c r="G93">
-        <v>519.7167293209252</v>
+        <v>64.477808455880862</v>
       </c>
       <c r="H93">
         <v>0.25</v>
@@ -4013,13 +4013,13 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="K93" s="5">
         <v>1</v>
       </c>
       <c r="L93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -4027,22 +4027,22 @@
         <v>11</v>
       </c>
       <c r="B94" s="5">
-        <v>8808.7157432925433</v>
+        <v>38.023054789676038</v>
       </c>
       <c r="C94" s="5">
-        <v>2821.015763487721</v>
+        <v>13.73735210312422</v>
       </c>
       <c r="D94" s="5">
-        <v>1204.1731757473999</v>
+        <v>7.3755058511596534</v>
       </c>
       <c r="E94" s="5">
-        <v>1888.6552855318071</v>
+        <v>10.9374593232703</v>
       </c>
       <c r="F94" s="5">
-        <v>901.39351969555855</v>
+        <v>9.9172855320008857</v>
       </c>
       <c r="G94">
-        <v>15623.95348775503</v>
+        <v>79.990657599231099</v>
       </c>
       <c r="H94">
         <v>0.25</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K94" s="5">
         <v>1</v>
@@ -4065,22 +4065,22 @@
         <v>11</v>
       </c>
       <c r="B95" s="5">
-        <v>17.558311608528349</v>
+        <v>161.130181151242</v>
       </c>
       <c r="C95" s="5">
-        <v>19.466721200702391</v>
+        <v>40.923437160020853</v>
       </c>
       <c r="D95" s="5">
-        <v>15.51603178288884</v>
+        <v>15.91366016335841</v>
       </c>
       <c r="E95" s="5">
-        <v>3.646889214760384</v>
+        <v>11.08299520442959</v>
       </c>
       <c r="F95" s="5">
-        <v>1.426505278814594</v>
+        <v>6.5904328161054524</v>
       </c>
       <c r="G95">
-        <v>57.614459085694548</v>
+        <v>235.64070649515619</v>
       </c>
       <c r="H95">
         <v>0.25</v>
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K95" s="5">
         <v>1</v>
@@ -4102,23 +4102,23 @@
       <c r="A96" t="s">
         <v>11</v>
       </c>
-      <c r="B96" s="5">
-        <v>13.217620732822139</v>
-      </c>
-      <c r="C96" s="5">
-        <v>18.302560730467238</v>
-      </c>
-      <c r="D96" s="5">
-        <v>14.5049246038595</v>
-      </c>
-      <c r="E96" s="5">
-        <v>3.3847839384172378</v>
-      </c>
-      <c r="F96" s="5">
-        <v>1.932239909123542</v>
+      <c r="B96" s="3">
+        <v>103.1051866704552</v>
+      </c>
+      <c r="C96" s="3">
+        <v>132.0829729730093</v>
+      </c>
+      <c r="D96" s="3">
+        <v>12.23183595219926</v>
+      </c>
+      <c r="E96" s="3">
+        <v>11.21303034465768</v>
+      </c>
+      <c r="F96" s="3">
+        <v>8.5322402863728257</v>
       </c>
       <c r="G96">
-        <v>51.342129914689657</v>
+        <v>267.16526622669431</v>
       </c>
       <c r="H96">
         <v>0.25</v>
@@ -4127,13 +4127,13 @@
         <v>0</v>
       </c>
       <c r="J96">
+        <v>10</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" t="s">
         <v>14</v>
-      </c>
-      <c r="K96" s="5">
-        <v>1</v>
-      </c>
-      <c r="L96" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -4141,22 +4141,22 @@
         <v>11</v>
       </c>
       <c r="B97" s="5">
-        <v>16.693554913506539</v>
+        <v>42.043753270365578</v>
       </c>
       <c r="C97" s="5">
-        <v>6.1692451928224772</v>
+        <v>37.469409189742557</v>
       </c>
       <c r="D97" s="5">
-        <v>13.09019575034135</v>
+        <v>14.762288410824301</v>
       </c>
       <c r="E97" s="5">
-        <v>5.2427272059822823</v>
+        <v>11.43532639587726</v>
       </c>
       <c r="F97" s="5">
-        <v>2.7178182162646598</v>
+        <v>20.984203379410321</v>
       </c>
       <c r="G97">
-        <v>43.913541278917307</v>
+        <v>126.69498064622</v>
       </c>
       <c r="H97">
         <v>0.25</v>
@@ -4165,13 +4165,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="K97" s="5">
         <v>1</v>
       </c>
       <c r="L97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -4179,22 +4179,22 @@
         <v>11</v>
       </c>
       <c r="B98" s="5">
-        <v>21.843439292140509</v>
+        <v>372.26785906680863</v>
       </c>
       <c r="C98" s="5">
-        <v>6.4571373236517378</v>
+        <v>68.141765606696936</v>
       </c>
       <c r="D98" s="5">
-        <v>2.7879115492744271</v>
+        <v>9.3763607652907712</v>
       </c>
       <c r="E98" s="5">
-        <v>7.0563471301055687</v>
+        <v>11.84163837811362</v>
       </c>
       <c r="F98" s="5">
-        <v>3.2589871201476468</v>
+        <v>11.904719060926521</v>
       </c>
       <c r="G98">
-        <v>41.403822415319887</v>
+        <v>473.53234287783641</v>
       </c>
       <c r="H98">
         <v>0.25</v>
@@ -4203,13 +4203,13 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K98" s="5">
         <v>1</v>
       </c>
       <c r="L98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -4217,22 +4217,22 @@
         <v>11</v>
       </c>
       <c r="B99" s="5">
-        <v>14.90924229690091</v>
+        <v>8.6402796135084934</v>
       </c>
       <c r="C99" s="5">
-        <v>8.6369334700549452</v>
+        <v>5.025868916529121</v>
       </c>
       <c r="D99" s="5">
-        <v>8.3581198145589823</v>
+        <v>16.887006046294751</v>
       </c>
       <c r="E99" s="5">
-        <v>5.1928456779694159</v>
+        <v>12.003875979825469</v>
       </c>
       <c r="F99" s="5">
-        <v>3.6010833449977651</v>
+        <v>4.1023481372561648</v>
       </c>
       <c r="G99">
-        <v>40.698224604482022</v>
+        <v>46.659378693413977</v>
       </c>
       <c r="H99">
         <v>0.25</v>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K99" s="5">
         <v>1</v>
@@ -4255,22 +4255,22 @@
         <v>11</v>
       </c>
       <c r="B100" s="5">
-        <v>25.47603913446526</v>
+        <v>193.07396127137039</v>
       </c>
       <c r="C100" s="5">
-        <v>46.844639011708409</v>
+        <v>29.562500568003099</v>
       </c>
       <c r="D100" s="5">
-        <v>24.09321079638358</v>
+        <v>4.7603296293185089</v>
       </c>
       <c r="E100" s="5">
-        <v>4.7770323653553017</v>
+        <v>12.209271020263509</v>
       </c>
       <c r="F100" s="5">
-        <v>3.8273319625299629</v>
+        <v>11.752361111237381</v>
       </c>
       <c r="G100">
-        <v>105.0182532704425</v>
+        <v>251.35842360019291</v>
       </c>
       <c r="H100">
         <v>0.25</v>
@@ -4285,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="L100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -4293,22 +4293,22 @@
         <v>11</v>
       </c>
       <c r="B101" s="5">
-        <v>6.8814656201375328</v>
+        <v>17.313441335906901</v>
       </c>
       <c r="C101" s="5">
-        <v>7.8868670856021739</v>
+        <v>10.646292414861369</v>
       </c>
       <c r="D101" s="5">
-        <v>7.0494962734452749</v>
+        <v>12.919652242785141</v>
       </c>
       <c r="E101" s="5">
-        <v>4.1183921700344852</v>
+        <v>12.35829249884643</v>
       </c>
       <c r="F101" s="5">
-        <v>3.8943760468298732</v>
+        <v>6.2574911617333857</v>
       </c>
       <c r="G101">
-        <v>29.830597196049339</v>
+        <v>59.495169654133242</v>
       </c>
       <c r="H101">
         <v>0.25</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K101" s="5">
         <v>1</v>
@@ -4330,23 +4330,23 @@
       <c r="A102" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="5">
-        <v>8.6402796135084934</v>
-      </c>
-      <c r="C102" s="5">
-        <v>5.025868916529121</v>
-      </c>
-      <c r="D102" s="5">
-        <v>16.887006046294751</v>
-      </c>
-      <c r="E102" s="5">
-        <v>12.003875979825469</v>
-      </c>
-      <c r="F102" s="5">
-        <v>4.1023481372561648</v>
-      </c>
-      <c r="G102">
-        <v>46.659378693413977</v>
+      <c r="B102" s="3">
+        <v>73.313498056735895</v>
+      </c>
+      <c r="C102" s="3">
+        <v>17.35949165074598</v>
+      </c>
+      <c r="D102" s="3">
+        <v>12.77636314961925</v>
+      </c>
+      <c r="E102" s="3">
+        <v>12.42562885780259</v>
+      </c>
+      <c r="F102" s="3">
+        <v>18.25949070593639</v>
+      </c>
+      <c r="G102" s="4">
+        <v>134.1344724208401</v>
       </c>
       <c r="H102">
         <v>0.25</v>
@@ -4355,13 +4355,13 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>19</v>
-      </c>
-      <c r="K102" s="5">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -4369,22 +4369,22 @@
         <v>11</v>
       </c>
       <c r="B103" s="5">
-        <v>13.20168270722435</v>
+        <v>390.83127359126883</v>
       </c>
       <c r="C103" s="5">
-        <v>10.20428040502882</v>
+        <v>121.5430910361091</v>
       </c>
       <c r="D103" s="5">
-        <v>22.405867243862541</v>
+        <v>19.431799142179969</v>
       </c>
       <c r="E103" s="5">
-        <v>5.4312530619258066</v>
+        <v>12.45005641983917</v>
       </c>
       <c r="F103" s="5">
-        <v>4.1815463731769213</v>
+        <v>15.20943219904097</v>
       </c>
       <c r="G103">
-        <v>55.424629791218443</v>
+        <v>559.465652388438</v>
       </c>
       <c r="H103">
         <v>0.25</v>
@@ -4393,13 +4393,13 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K103" s="5">
         <v>1</v>
       </c>
       <c r="L103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -4407,22 +4407,22 @@
         <v>11</v>
       </c>
       <c r="B104" s="5">
-        <v>14.364462723947099</v>
+        <v>377.10907010885148</v>
       </c>
       <c r="C104" s="5">
-        <v>6.7844546091972058</v>
+        <v>94.900853283499288</v>
       </c>
       <c r="D104" s="5">
-        <v>17.087886347279149</v>
+        <v>28.95898566627546</v>
       </c>
       <c r="E104" s="5">
-        <v>6.6864482707338748</v>
+        <v>12.52566349326198</v>
       </c>
       <c r="F104" s="5">
-        <v>4.6518423623712826</v>
+        <v>5.2386636068968064</v>
       </c>
       <c r="G104">
-        <v>49.575094313528624</v>
+        <v>518.73323615878519</v>
       </c>
       <c r="H104">
         <v>0.25</v>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="K104" s="5">
         <v>1</v>
@@ -4445,22 +4445,22 @@
         <v>11</v>
       </c>
       <c r="B105" s="5">
-        <v>16.79417966776035</v>
+        <v>9867.3337015688558</v>
       </c>
       <c r="C105" s="5">
-        <v>7.8685272047918362</v>
+        <v>1004.993845248016</v>
       </c>
       <c r="D105" s="5">
-        <v>23.777728589695251</v>
+        <v>71.132392935579063</v>
       </c>
       <c r="E105" s="5">
-        <v>10.89522149581167</v>
+        <v>12.601369677818189</v>
       </c>
       <c r="F105" s="5">
-        <v>5.1421514978217449</v>
+        <v>9.7998429225561701</v>
       </c>
       <c r="G105">
-        <v>64.477808455880862</v>
+        <v>10965.861152352831</v>
       </c>
       <c r="H105">
         <v>0.25</v>
@@ -4469,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K105" s="5">
         <v>1</v>
       </c>
       <c r="L105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -4483,22 +4483,22 @@
         <v>11</v>
       </c>
       <c r="B106" s="5">
-        <v>377.10907010885148</v>
+        <v>95.416197231802983</v>
       </c>
       <c r="C106" s="5">
-        <v>94.900853283499288</v>
+        <v>28.89526964845232</v>
       </c>
       <c r="D106" s="5">
-        <v>28.95898566627546</v>
+        <v>14.02293459251595</v>
       </c>
       <c r="E106" s="5">
-        <v>12.52566349326198</v>
+        <v>13.01356997791726</v>
       </c>
       <c r="F106" s="5">
-        <v>5.2386636068968064</v>
+        <v>5.3010428587259861</v>
       </c>
       <c r="G106">
-        <v>518.73323615878519</v>
+        <v>156.6490143094145</v>
       </c>
       <c r="H106">
         <v>0.25</v>
@@ -4507,13 +4507,13 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K106" s="5">
         <v>1</v>
       </c>
       <c r="L106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -4521,22 +4521,22 @@
         <v>11</v>
       </c>
       <c r="B107" s="5">
-        <v>26.15862688407783</v>
+        <v>30.405027340614708</v>
       </c>
       <c r="C107" s="5">
-        <v>37.943249099849687</v>
+        <v>17.98356822436115</v>
       </c>
       <c r="D107" s="5">
-        <v>110.9203960479993</v>
+        <v>24.975347367444559</v>
       </c>
       <c r="E107" s="5">
-        <v>14.21766857855267</v>
+        <v>13.359453017258151</v>
       </c>
       <c r="F107" s="5">
-        <v>6.1205373317451093</v>
+        <v>8.252652572142761</v>
       </c>
       <c r="G107">
-        <v>195.36047794222469</v>
+        <v>94.976048521821326</v>
       </c>
       <c r="H107">
         <v>0.25</v>
@@ -4545,13 +4545,13 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K107" s="5">
         <v>1</v>
       </c>
       <c r="L107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -4559,22 +4559,22 @@
         <v>11</v>
       </c>
       <c r="B108" s="5">
-        <v>20.872884909779611</v>
+        <v>46.376945305535607</v>
       </c>
       <c r="C108" s="5">
-        <v>24.319166468220509</v>
+        <v>18.653234496852839</v>
       </c>
       <c r="D108" s="5">
-        <v>112.3490189168636</v>
+        <v>25.59523107332647</v>
       </c>
       <c r="E108" s="5">
-        <v>14.528372061008589</v>
+        <v>13.37412196631097</v>
       </c>
       <c r="F108" s="5">
-        <v>6.1379417521060811</v>
+        <v>11.1483084779642</v>
       </c>
       <c r="G108">
-        <v>178.20738410797841</v>
+        <v>115.14784131999011</v>
       </c>
       <c r="H108">
         <v>0.25</v>
@@ -4583,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="K108" s="5">
         <v>1</v>
       </c>
       <c r="L108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -4597,22 +4597,22 @@
         <v>11</v>
       </c>
       <c r="B109" s="5">
-        <v>17.313441335906901</v>
+        <v>128.60664090352631</v>
       </c>
       <c r="C109" s="5">
-        <v>10.646292414861369</v>
+        <v>23.192502061811311</v>
       </c>
       <c r="D109" s="5">
-        <v>12.919652242785141</v>
+        <v>5.864501666276202</v>
       </c>
       <c r="E109" s="5">
-        <v>12.35829249884643</v>
+        <v>13.38263718119649</v>
       </c>
       <c r="F109" s="5">
-        <v>6.2574911617333857</v>
+        <v>14.547185283070711</v>
       </c>
       <c r="G109">
-        <v>59.495169654133242</v>
+        <v>185.59346709588101</v>
       </c>
       <c r="H109">
         <v>0.25</v>
@@ -4621,13 +4621,13 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K109" s="5">
         <v>1</v>
       </c>
       <c r="L109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -4635,22 +4635,22 @@
         <v>11</v>
       </c>
       <c r="B110" s="5">
-        <v>161.130181151242</v>
+        <v>88.221041581319099</v>
       </c>
       <c r="C110" s="5">
-        <v>40.923437160020853</v>
+        <v>28.031674035964961</v>
       </c>
       <c r="D110" s="5">
-        <v>15.91366016335841</v>
+        <v>13.69598715339886</v>
       </c>
       <c r="E110" s="5">
-        <v>11.08299520442959</v>
+        <v>13.50576257767376</v>
       </c>
       <c r="F110" s="5">
-        <v>6.5904328161054524</v>
+        <v>5.3249720415823756</v>
       </c>
       <c r="G110">
-        <v>235.64070649515619</v>
+        <v>148.77943738993901</v>
       </c>
       <c r="H110">
         <v>0.25</v>
@@ -4659,36 +4659,36 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K110" s="5">
         <v>1</v>
       </c>
       <c r="L110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>11</v>
       </c>
-      <c r="B111" s="5">
-        <v>23.449461749916331</v>
-      </c>
-      <c r="C111" s="5">
-        <v>13.6722705264176</v>
-      </c>
-      <c r="D111" s="5">
-        <v>10.78140970622367</v>
-      </c>
-      <c r="E111" s="5">
-        <v>9.2828745738899343</v>
-      </c>
-      <c r="F111" s="5">
-        <v>7.5744099566417136</v>
-      </c>
-      <c r="G111">
-        <v>64.760426513089243</v>
+      <c r="B111" s="3">
+        <v>9.4164439436343592</v>
+      </c>
+      <c r="C111" s="3">
+        <v>20.274048377780471</v>
+      </c>
+      <c r="D111" s="3">
+        <v>5.4179085339747068</v>
+      </c>
+      <c r="E111" s="3">
+        <v>13.72432892781549</v>
+      </c>
+      <c r="F111" s="3">
+        <v>32.186458792053777</v>
+      </c>
+      <c r="G111" s="4">
+        <v>81.019188575258795</v>
       </c>
       <c r="H111">
         <v>0.25</v>
@@ -4697,13 +4697,13 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>2</v>
-      </c>
-      <c r="K111" s="5">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="K111" s="3">
+        <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -4711,22 +4711,22 @@
         <v>11</v>
       </c>
       <c r="B112" s="5">
-        <v>10.82081561302085</v>
+        <v>26.15862688407783</v>
       </c>
       <c r="C112" s="5">
-        <v>18.035296198701431</v>
+        <v>37.943249099849687</v>
       </c>
       <c r="D112" s="5">
-        <v>57.472528681912749</v>
+        <v>110.9203960479993</v>
       </c>
       <c r="E112" s="5">
-        <v>20.569849691176511</v>
+        <v>14.21766857855267</v>
       </c>
       <c r="F112" s="5">
-        <v>7.9158748461611754</v>
+        <v>6.1205373317451093</v>
       </c>
       <c r="G112">
-        <v>114.8143650309727</v>
+        <v>195.36047794222469</v>
       </c>
       <c r="H112">
         <v>0.25</v>
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K112" s="5">
         <v>1</v>
@@ -4749,22 +4749,22 @@
         <v>11</v>
       </c>
       <c r="B113" s="5">
-        <v>40.720228914738087</v>
+        <v>20.872884909779611</v>
       </c>
       <c r="C113" s="5">
-        <v>6.7160457189148843</v>
+        <v>24.319166468220509</v>
       </c>
       <c r="D113" s="5">
-        <v>5.8882436731579881</v>
+        <v>112.3490189168636</v>
       </c>
       <c r="E113" s="5">
-        <v>8.5453413306891655</v>
+        <v>14.528372061008589</v>
       </c>
       <c r="F113" s="5">
-        <v>7.9765025993519707</v>
+        <v>6.1379417521060811</v>
       </c>
       <c r="G113">
-        <v>69.846362236852087</v>
+        <v>178.20738410797841</v>
       </c>
       <c r="H113">
         <v>0.25</v>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K113" s="5">
         <v>1</v>
@@ -4787,22 +4787,22 @@
         <v>11</v>
       </c>
       <c r="B114" s="5">
-        <v>1623.648564278328</v>
+        <v>161.06666953465449</v>
       </c>
       <c r="C114" s="5">
-        <v>280.5395409365824</v>
+        <v>36.087957067190352</v>
       </c>
       <c r="D114" s="5">
-        <v>41.452979171536519</v>
+        <v>14.738736510620191</v>
       </c>
       <c r="E114" s="5">
-        <v>21.849281880479381</v>
+        <v>14.61730779487063</v>
       </c>
       <c r="F114" s="5">
-        <v>11.153625856067089</v>
+        <v>26.529800106111381</v>
       </c>
       <c r="G114">
-        <v>1978.643992122993</v>
+        <v>253.04047101344699</v>
       </c>
       <c r="H114">
         <v>0.25</v>
@@ -4811,13 +4811,13 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K114" s="5">
         <v>1</v>
       </c>
       <c r="L114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -4825,22 +4825,22 @@
         <v>11</v>
       </c>
       <c r="B115" s="5">
-        <v>16.495713424306871</v>
+        <v>214.97658580428629</v>
       </c>
       <c r="C115" s="5">
-        <v>7.5606645393923353</v>
+        <v>43.112079413289997</v>
       </c>
       <c r="D115" s="5">
-        <v>7.7422833921946506</v>
+        <v>14.641539593540729</v>
       </c>
       <c r="E115" s="5">
-        <v>18.977784437839141</v>
+        <v>14.840640897707351</v>
       </c>
       <c r="F115" s="5">
-        <v>11.968748762380431</v>
+        <v>21.78801315177774</v>
       </c>
       <c r="G115">
-        <v>62.745194556113411</v>
+        <v>309.35885886060208</v>
       </c>
       <c r="H115">
         <v>0.25</v>
@@ -4849,36 +4849,36 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="K115" s="5">
         <v>1</v>
       </c>
       <c r="L115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="5">
-        <v>198.9221554665468</v>
-      </c>
-      <c r="C116" s="5">
-        <v>13.005717811655179</v>
-      </c>
-      <c r="D116" s="5">
-        <v>54.385513860285627</v>
-      </c>
-      <c r="E116" s="5">
-        <v>19.669086321013179</v>
-      </c>
-      <c r="F116" s="5">
-        <v>12.480538988384239</v>
+      <c r="B116" s="3">
+        <v>45.413533316493272</v>
+      </c>
+      <c r="C116" s="3">
+        <v>26.714302223063591</v>
+      </c>
+      <c r="D116" s="3">
+        <v>74.687939090761617</v>
+      </c>
+      <c r="E116" s="3">
+        <v>15.12791765727688</v>
+      </c>
+      <c r="F116" s="3">
+        <v>6.3210911634206237</v>
       </c>
       <c r="G116">
-        <v>298.46301244788498</v>
+        <v>168.264783451016</v>
       </c>
       <c r="H116">
         <v>0.25</v>
@@ -4887,10 +4887,10 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>25</v>
-      </c>
-      <c r="K116" s="5">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K116" s="3">
+        <v>0</v>
       </c>
       <c r="L116" t="s">
         <v>13</v>
@@ -4901,22 +4901,22 @@
         <v>11</v>
       </c>
       <c r="B117" s="5">
-        <v>409.99432107637051</v>
+        <v>86.614255721165165</v>
       </c>
       <c r="C117" s="5">
-        <v>90.608376394924008</v>
+        <v>29.467811224305571</v>
       </c>
       <c r="D117" s="5">
-        <v>47.234813845960879</v>
+        <v>34.002977908529843</v>
       </c>
       <c r="E117" s="5">
-        <v>20.203213189775042</v>
+        <v>16.911262321606291</v>
       </c>
       <c r="F117" s="5">
-        <v>20.676880520337178</v>
+        <v>10.00505224795212</v>
       </c>
       <c r="G117">
-        <v>588.71760502736765</v>
+        <v>177.00135942355899</v>
       </c>
       <c r="H117">
         <v>0.25</v>
@@ -4925,13 +4925,13 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K117" s="5">
         <v>1</v>
       </c>
       <c r="L117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -4939,22 +4939,22 @@
         <v>11</v>
       </c>
       <c r="B118" s="5">
-        <v>17.959419248543899</v>
+        <v>122.0817075054409</v>
       </c>
       <c r="C118" s="5">
-        <v>35.534441438174333</v>
+        <v>26.48986766415376</v>
       </c>
       <c r="D118" s="5">
-        <v>13.38739071959874</v>
+        <v>12.98769474048923</v>
       </c>
       <c r="E118" s="5">
-        <v>27.278820853825231</v>
+        <v>17.615919670611511</v>
       </c>
       <c r="F118" s="5">
-        <v>44.123667932765478</v>
+        <v>28.321539479143912</v>
       </c>
       <c r="G118">
-        <v>138.28374019290769</v>
+        <v>207.4967290598394</v>
       </c>
       <c r="H118">
         <v>0.25</v>
@@ -4963,13 +4963,13 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="K118" s="5">
         <v>1</v>
       </c>
       <c r="L118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -4977,22 +4977,22 @@
         <v>11</v>
       </c>
       <c r="B119" s="5">
-        <v>235.40594473500201</v>
+        <v>40.895758220048663</v>
       </c>
       <c r="C119" s="5">
-        <v>45.426447438716593</v>
+        <v>15.45769599960607</v>
       </c>
       <c r="D119" s="5">
-        <v>6.6095839837137511</v>
+        <v>7.0962892989591566</v>
       </c>
       <c r="E119" s="5">
-        <v>3.1180169387886338</v>
+        <v>17.92441196243384</v>
       </c>
       <c r="F119" s="5">
-        <v>2.2723988407111522</v>
+        <v>32.746420814570712</v>
       </c>
       <c r="G119">
-        <v>292.83239193693208</v>
+        <v>114.12057629561841</v>
       </c>
       <c r="H119">
         <v>0.25</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K119" s="5">
         <v>1</v>
@@ -5015,22 +5015,22 @@
         <v>11</v>
       </c>
       <c r="B120" s="5">
-        <v>65.406557921099022</v>
+        <v>16.495713424306871</v>
       </c>
       <c r="C120" s="5">
-        <v>20.69542954441274</v>
+        <v>7.5606645393923353</v>
       </c>
       <c r="D120" s="5">
-        <v>8.7164505973254442</v>
+        <v>7.7422833921946506</v>
       </c>
       <c r="E120" s="5">
-        <v>3.5593449912106978</v>
+        <v>18.977784437839141</v>
       </c>
       <c r="F120" s="5">
-        <v>2.574372896372636</v>
+        <v>11.968748762380431</v>
       </c>
       <c r="G120">
-        <v>100.9521559504205</v>
+        <v>62.745194556113411</v>
       </c>
       <c r="H120">
         <v>0.25</v>
@@ -5039,36 +5039,36 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K120" s="5">
         <v>1</v>
       </c>
       <c r="L120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>11</v>
       </c>
-      <c r="B121" s="5">
-        <v>232.28594054380781</v>
-      </c>
-      <c r="C121" s="5">
-        <v>55.915760942907447</v>
-      </c>
-      <c r="D121" s="5">
-        <v>7.2651510437669531</v>
-      </c>
-      <c r="E121" s="5">
-        <v>3.7480180874917242</v>
-      </c>
-      <c r="F121" s="5">
-        <v>3.7263230837477379</v>
-      </c>
-      <c r="G121">
-        <v>302.9411937017216</v>
+      <c r="B121" s="3">
+        <v>184.63138089450541</v>
+      </c>
+      <c r="C121" s="3">
+        <v>37.684182434630017</v>
+      </c>
+      <c r="D121" s="3">
+        <v>20.40537587904457</v>
+      </c>
+      <c r="E121" s="3">
+        <v>19.536153645786879</v>
+      </c>
+      <c r="F121" s="3">
+        <v>12.034899863123581</v>
+      </c>
+      <c r="G121" s="4">
+        <v>274.2919927170903</v>
       </c>
       <c r="H121">
         <v>0.25</v>
@@ -5077,13 +5077,13 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>8</v>
-      </c>
-      <c r="K121" s="5">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K121" s="3">
+        <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -5091,22 +5091,22 @@
         <v>11</v>
       </c>
       <c r="B122" s="5">
-        <v>73.150551680826027</v>
+        <v>198.9221554665468</v>
       </c>
       <c r="C122" s="5">
-        <v>17.587755006762769</v>
+        <v>13.005717811655179</v>
       </c>
       <c r="D122" s="5">
-        <v>3.096755728383501</v>
+        <v>54.385513860285627</v>
       </c>
       <c r="E122" s="5">
-        <v>3.1116774767673578</v>
+        <v>19.669086321013179</v>
       </c>
       <c r="F122" s="5">
-        <v>3.793398463839893</v>
+        <v>12.480538988384239</v>
       </c>
       <c r="G122">
-        <v>100.74013835657961</v>
+        <v>298.46301244788498</v>
       </c>
       <c r="H122">
         <v>0.25</v>
@@ -5115,13 +5115,13 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K122" s="5">
         <v>1</v>
       </c>
       <c r="L122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -5129,22 +5129,22 @@
         <v>11</v>
       </c>
       <c r="B123" s="5">
-        <v>84.859712229630446</v>
+        <v>409.99432107637051</v>
       </c>
       <c r="C123" s="5">
-        <v>10.128625481186081</v>
+        <v>90.608376394924008</v>
       </c>
       <c r="D123" s="5">
-        <v>4.4418434731842193</v>
+        <v>47.234813845960879</v>
       </c>
       <c r="E123" s="5">
-        <v>4.4324786211218292</v>
+        <v>20.203213189775042</v>
       </c>
       <c r="F123" s="5">
-        <v>4.7947516293723664</v>
+        <v>20.676880520337178</v>
       </c>
       <c r="G123">
-        <v>108.6574114344949</v>
+        <v>588.71760502736765</v>
       </c>
       <c r="H123">
         <v>0.25</v>
@@ -5153,13 +5153,13 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K123" s="5">
         <v>1</v>
       </c>
       <c r="L123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -5167,22 +5167,22 @@
         <v>11</v>
       </c>
       <c r="B124" s="5">
-        <v>88.221041581319099</v>
+        <v>10.82081561302085</v>
       </c>
       <c r="C124" s="5">
-        <v>28.031674035964961</v>
+        <v>18.035296198701431</v>
       </c>
       <c r="D124" s="5">
-        <v>13.69598715339886</v>
+        <v>57.472528681912749</v>
       </c>
       <c r="E124" s="5">
-        <v>13.50576257767376</v>
+        <v>20.569849691176511</v>
       </c>
       <c r="F124" s="5">
-        <v>5.3249720415823756</v>
+        <v>7.9158748461611754</v>
       </c>
       <c r="G124">
-        <v>148.77943738993901</v>
+        <v>114.8143650309727</v>
       </c>
       <c r="H124">
         <v>0.25</v>
@@ -5191,13 +5191,13 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K124" s="5">
         <v>1</v>
       </c>
       <c r="L124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -5205,22 +5205,22 @@
         <v>11</v>
       </c>
       <c r="B125" s="5">
-        <v>56.502424577562351</v>
+        <v>1623.648564278328</v>
       </c>
       <c r="C125" s="5">
-        <v>16.774027546371371</v>
+        <v>280.5395409365824</v>
       </c>
       <c r="D125" s="5">
-        <v>7.6832568989689527</v>
+        <v>41.452979171536519</v>
       </c>
       <c r="E125" s="5">
-        <v>8.3648183534586522</v>
+        <v>21.849281880479381</v>
       </c>
       <c r="F125" s="5">
-        <v>5.6003308668755283</v>
+        <v>11.153625856067089</v>
       </c>
       <c r="G125">
-        <v>94.924858243236841</v>
+        <v>1978.643992122993</v>
       </c>
       <c r="H125">
         <v>0.25</v>
@@ -5229,13 +5229,13 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="K125" s="5">
         <v>1</v>
       </c>
       <c r="L125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -5243,22 +5243,22 @@
         <v>11</v>
       </c>
       <c r="B126" s="5">
-        <v>267.906818110122</v>
+        <v>802.65750224105022</v>
       </c>
       <c r="C126" s="5">
-        <v>96.955117025951552</v>
+        <v>155.24556505694031</v>
       </c>
       <c r="D126" s="5">
-        <v>20.12915388892057</v>
+        <v>51.506967171100293</v>
       </c>
       <c r="E126" s="5">
-        <v>8.4216692146004775</v>
+        <v>22.323915600573951</v>
       </c>
       <c r="F126" s="5">
-        <v>6.3734038112820004</v>
+        <v>20.797088563166358</v>
       </c>
       <c r="G126">
-        <v>399.78616205087673</v>
+        <v>1052.531038632831</v>
       </c>
       <c r="H126">
         <v>0.25</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K126" s="5">
         <v>1</v>
@@ -5281,22 +5281,22 @@
         <v>11</v>
       </c>
       <c r="B127" s="5">
-        <v>54.642516534940128</v>
+        <v>41.466961436971737</v>
       </c>
       <c r="C127" s="5">
-        <v>17.79898931614807</v>
+        <v>39.143452149345229</v>
       </c>
       <c r="D127" s="5">
-        <v>7.1725658532150671</v>
+        <v>16.883304475451389</v>
       </c>
       <c r="E127" s="5">
-        <v>7.1847953829573612</v>
+        <v>22.706780397732011</v>
       </c>
       <c r="F127" s="5">
-        <v>6.7056836350308142</v>
+        <v>46.167724639851983</v>
       </c>
       <c r="G127">
-        <v>93.504550722291413</v>
+        <v>166.36822309935229</v>
       </c>
       <c r="H127">
         <v>0.25</v>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="K127" s="5">
         <v>1</v>
@@ -5319,22 +5319,22 @@
         <v>11</v>
       </c>
       <c r="B128" s="5">
-        <v>60.658953246421653</v>
+        <v>121.546107093449</v>
       </c>
       <c r="C128" s="5">
-        <v>17.03114556956632</v>
+        <v>17.259817482442401</v>
       </c>
       <c r="D128" s="5">
-        <v>17.049517287778979</v>
+        <v>18.233136811583599</v>
       </c>
       <c r="E128" s="5">
-        <v>9.6295405790695412</v>
+        <v>22.728376217995351</v>
       </c>
       <c r="F128" s="5">
-        <v>7.1901307616153058</v>
+        <v>25.17069831431975</v>
       </c>
       <c r="G128">
-        <v>111.5592874444518</v>
+        <v>204.93813591979011</v>
       </c>
       <c r="H128">
         <v>0.25</v>
@@ -5343,36 +5343,36 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="K128" s="5">
         <v>1</v>
       </c>
       <c r="L128" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>11</v>
       </c>
-      <c r="B129" s="5">
-        <v>214.95359623686011</v>
-      </c>
-      <c r="C129" s="5">
-        <v>50.315682788998053</v>
-      </c>
-      <c r="D129" s="5">
-        <v>13.322878634406029</v>
-      </c>
-      <c r="E129" s="5">
-        <v>7.9635131153227423</v>
-      </c>
-      <c r="F129" s="5">
-        <v>7.5231953436968206</v>
-      </c>
-      <c r="G129">
-        <v>294.0788661192837</v>
+      <c r="B129" s="3">
+        <v>70.404680583626458</v>
+      </c>
+      <c r="C129" s="3">
+        <v>28.808555254381229</v>
+      </c>
+      <c r="D129" s="3">
+        <v>56.490588416416529</v>
+      </c>
+      <c r="E129" s="3">
+        <v>23.430932841242129</v>
+      </c>
+      <c r="F129" s="3">
+        <v>23.190726164354889</v>
+      </c>
+      <c r="G129" s="4">
+        <v>202.3254832600212</v>
       </c>
       <c r="H129">
         <v>0.25</v>
@@ -5381,13 +5381,13 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>7</v>
-      </c>
-      <c r="K129" s="5">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K129" s="3">
+        <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -5395,22 +5395,22 @@
         <v>11</v>
       </c>
       <c r="B130" s="5">
-        <v>20.66599112289768</v>
+        <v>55.407450976842803</v>
       </c>
       <c r="C130" s="5">
-        <v>10.12983704204151</v>
+        <v>37.711815604168542</v>
       </c>
       <c r="D130" s="5">
-        <v>6.1897501490881268</v>
+        <v>29.84420582515104</v>
       </c>
       <c r="E130" s="5">
-        <v>7.2533225994151493</v>
+        <v>24.25073807054487</v>
       </c>
       <c r="F130" s="5">
-        <v>8.2131494742253359</v>
+        <v>16.73049070195669</v>
       </c>
       <c r="G130">
-        <v>52.452050387667789</v>
+        <v>163.94470117866391</v>
       </c>
       <c r="H130">
         <v>0.25</v>
@@ -5419,13 +5419,13 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K130" s="5">
         <v>1</v>
       </c>
       <c r="L130" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -5433,22 +5433,22 @@
         <v>11</v>
       </c>
       <c r="B131" s="5">
-        <v>9867.3337015688558</v>
+        <v>24.568665974587681</v>
       </c>
       <c r="C131" s="5">
-        <v>1004.993845248016</v>
+        <v>10.021426120628281</v>
       </c>
       <c r="D131" s="5">
-        <v>71.132392935579063</v>
+        <v>8.1194652823228814</v>
       </c>
       <c r="E131" s="5">
-        <v>12.601369677818189</v>
+        <v>24.729649750494861</v>
       </c>
       <c r="F131" s="5">
-        <v>9.7998429225561701</v>
+        <v>12.272642662364101</v>
       </c>
       <c r="G131">
-        <v>10965.861152352831</v>
+        <v>79.711849790397793</v>
       </c>
       <c r="H131">
         <v>0.25</v>
@@ -5457,36 +5457,36 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K131" s="5">
         <v>1</v>
       </c>
       <c r="L131" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>11</v>
       </c>
-      <c r="B132" s="5">
-        <v>86.614255721165165</v>
-      </c>
-      <c r="C132" s="5">
-        <v>29.467811224305571</v>
-      </c>
-      <c r="D132" s="5">
-        <v>34.002977908529843</v>
-      </c>
-      <c r="E132" s="5">
-        <v>16.911262321606291</v>
-      </c>
-      <c r="F132" s="5">
-        <v>10.00505224795212</v>
+      <c r="B132" s="3">
+        <v>156.73928989626941</v>
+      </c>
+      <c r="C132" s="3">
+        <v>46.37723162553425</v>
+      </c>
+      <c r="D132" s="3">
+        <v>24.320384377781259</v>
+      </c>
+      <c r="E132" s="3">
+        <v>25.13703475394469</v>
+      </c>
+      <c r="F132" s="3">
+        <v>34.388880435657242</v>
       </c>
       <c r="G132">
-        <v>177.00135942355899</v>
+        <v>286.96282108918672</v>
       </c>
       <c r="H132">
         <v>0.25</v>
@@ -5495,10 +5495,10 @@
         <v>0</v>
       </c>
       <c r="J132">
-        <v>22</v>
-      </c>
-      <c r="K132" s="5">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="K132" s="3">
+        <v>0</v>
       </c>
       <c r="L132" t="s">
         <v>14</v>
@@ -5509,22 +5509,22 @@
         <v>11</v>
       </c>
       <c r="B133" s="5">
-        <v>218.1523138297606</v>
+        <v>17.959419248543899</v>
       </c>
       <c r="C133" s="5">
-        <v>48.870510506223553</v>
+        <v>35.534441438174333</v>
       </c>
       <c r="D133" s="5">
-        <v>9.4647477364009731</v>
+        <v>13.38739071959874</v>
       </c>
       <c r="E133" s="5">
-        <v>10.215222986293069</v>
+        <v>27.278820853825231</v>
       </c>
       <c r="F133" s="5">
-        <v>10.288511190749739</v>
+        <v>44.123667932765478</v>
       </c>
       <c r="G133">
-        <v>296.99130624942802</v>
+        <v>138.28374019290769</v>
       </c>
       <c r="H133">
         <v>0.25</v>
@@ -5533,13 +5533,13 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K133" s="5">
         <v>1</v>
       </c>
       <c r="L133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -5547,22 +5547,22 @@
         <v>11</v>
       </c>
       <c r="B134" s="5">
-        <v>372.26785906680863</v>
+        <v>1862.0026808313489</v>
       </c>
       <c r="C134" s="5">
-        <v>68.141765606696936</v>
+        <v>302.50344270560572</v>
       </c>
       <c r="D134" s="5">
-        <v>9.3763607652907712</v>
+        <v>69.723477748318572</v>
       </c>
       <c r="E134" s="5">
-        <v>11.84163837811362</v>
+        <v>30.0070083641811</v>
       </c>
       <c r="F134" s="5">
-        <v>11.904719060926521</v>
+        <v>12.316163630020821</v>
       </c>
       <c r="G134">
-        <v>473.53234287783641</v>
+        <v>2276.5527732794749</v>
       </c>
       <c r="H134">
         <v>0.25</v>
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K134" s="5">
         <v>1</v>
@@ -5585,22 +5585,22 @@
         <v>11</v>
       </c>
       <c r="B135" s="5">
-        <v>1862.0026808313489</v>
+        <v>1369.992329953968</v>
       </c>
       <c r="C135" s="5">
-        <v>302.50344270560572</v>
+        <v>249.3948659821078</v>
       </c>
       <c r="D135" s="5">
-        <v>69.723477748318572</v>
+        <v>69.725353110384276</v>
       </c>
       <c r="E135" s="5">
-        <v>30.0070083641811</v>
+        <v>39.52201185941594</v>
       </c>
       <c r="F135" s="5">
-        <v>12.316163630020821</v>
+        <v>21.911865664827321</v>
       </c>
       <c r="G135">
-        <v>2276.5527732794749</v>
+        <v>1750.546426570703</v>
       </c>
       <c r="H135">
         <v>0.25</v>
@@ -5609,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K135" s="5">
         <v>1</v>
@@ -5623,22 +5623,22 @@
         <v>11</v>
       </c>
       <c r="B136" s="5">
-        <v>390.83127359126883</v>
+        <v>819.93246627345229</v>
       </c>
       <c r="C136" s="5">
-        <v>121.5430910361091</v>
+        <v>177.95107658333549</v>
       </c>
       <c r="D136" s="5">
-        <v>19.431799142179969</v>
+        <v>39.939352904811606</v>
       </c>
       <c r="E136" s="5">
-        <v>12.45005641983917</v>
+        <v>41.291352407113372</v>
       </c>
       <c r="F136" s="5">
-        <v>15.20943219904097</v>
+        <v>91.505400439019127</v>
       </c>
       <c r="G136">
-        <v>559.465652388438</v>
+        <v>1170.619648607732</v>
       </c>
       <c r="H136">
         <v>0.25</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K136" s="5">
         <v>1</v>
@@ -5660,23 +5660,23 @@
       <c r="A137" t="s">
         <v>11</v>
       </c>
-      <c r="B137" s="5">
-        <v>802.65750224105022</v>
-      </c>
-      <c r="C137" s="5">
-        <v>155.24556505694031</v>
-      </c>
-      <c r="D137" s="5">
-        <v>51.506967171100293</v>
-      </c>
-      <c r="E137" s="5">
-        <v>22.323915600573951</v>
-      </c>
-      <c r="F137" s="5">
-        <v>20.797088563166358</v>
+      <c r="B137" s="3">
+        <v>24.09598084295509</v>
+      </c>
+      <c r="C137" s="3">
+        <v>46.02564548352823</v>
+      </c>
+      <c r="D137" s="3">
+        <v>26.621712504323561</v>
+      </c>
+      <c r="E137" s="3">
+        <v>45.398046518585318</v>
+      </c>
+      <c r="F137" s="3">
+        <v>80.309917654816019</v>
       </c>
       <c r="G137">
-        <v>1052.531038632831</v>
+        <v>222.4513030042082</v>
       </c>
       <c r="H137">
         <v>0.25</v>
@@ -5685,10 +5685,10 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>19</v>
-      </c>
-      <c r="K137" s="5">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K137" s="3">
+        <v>0</v>
       </c>
       <c r="L137" t="s">
         <v>14</v>
@@ -5699,22 +5699,22 @@
         <v>11</v>
       </c>
       <c r="B138" s="5">
-        <v>214.97658580428629</v>
+        <v>174.75156563043399</v>
       </c>
       <c r="C138" s="5">
-        <v>43.112079413289997</v>
+        <v>81.066935640875514</v>
       </c>
       <c r="D138" s="5">
-        <v>14.641539593540729</v>
+        <v>58.979090813624289</v>
       </c>
       <c r="E138" s="5">
-        <v>14.840640897707351</v>
+        <v>72.966641856536214</v>
       </c>
       <c r="F138" s="5">
-        <v>21.78801315177774</v>
+        <v>38.385345221913227</v>
       </c>
       <c r="G138">
-        <v>309.35885886060208</v>
+        <v>426.14957916338341</v>
       </c>
       <c r="H138">
         <v>0.25</v>
@@ -5723,13 +5723,13 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="K138" s="5">
         <v>1</v>
       </c>
       <c r="L138" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -5737,22 +5737,22 @@
         <v>11</v>
       </c>
       <c r="B139" s="5">
-        <v>1369.992329953968</v>
+        <v>178.82810557431139</v>
       </c>
       <c r="C139" s="5">
-        <v>249.3948659821078</v>
+        <v>73.22459727099087</v>
       </c>
       <c r="D139" s="5">
-        <v>69.725353110384276</v>
+        <v>32.69465485651773</v>
       </c>
       <c r="E139" s="5">
-        <v>39.52201185941594</v>
+        <v>73.538085928013913</v>
       </c>
       <c r="F139" s="5">
-        <v>21.911865664827321</v>
+        <v>164.8984532662767</v>
       </c>
       <c r="G139">
-        <v>1750.546426570703</v>
+        <v>523.18389689611058</v>
       </c>
       <c r="H139">
         <v>0.25</v>
@@ -5761,13 +5761,13 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K139" s="5">
         <v>1</v>
       </c>
       <c r="L139" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -5775,22 +5775,22 @@
         <v>11</v>
       </c>
       <c r="B140" s="5">
-        <v>40.895758220048663</v>
+        <v>2217.7430088295291</v>
       </c>
       <c r="C140" s="5">
-        <v>15.45769599960607</v>
+        <v>279.24549147073043</v>
       </c>
       <c r="D140" s="5">
-        <v>7.0962892989591566</v>
+        <v>141.74236719730729</v>
       </c>
       <c r="E140" s="5">
-        <v>17.92441196243384</v>
+        <v>134.10122092984989</v>
       </c>
       <c r="F140" s="5">
-        <v>32.746420814570712</v>
+        <v>852.32914664962186</v>
       </c>
       <c r="G140">
-        <v>114.12057629561841</v>
+        <v>3625.1612350770401</v>
       </c>
       <c r="H140">
         <v>0.25</v>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K140" s="5">
         <v>1</v>
@@ -5813,22 +5813,22 @@
         <v>11</v>
       </c>
       <c r="B141" s="5">
-        <v>41.466961436971737</v>
+        <v>755.21700314466875</v>
       </c>
       <c r="C141" s="5">
-        <v>39.143452149345229</v>
+        <v>268.68587531945712</v>
       </c>
       <c r="D141" s="5">
-        <v>16.883304475451389</v>
+        <v>162.55994015662239</v>
       </c>
       <c r="E141" s="5">
-        <v>22.706780397732011</v>
+        <v>247.64125968033579</v>
       </c>
       <c r="F141" s="5">
-        <v>46.167724639851983</v>
+        <v>203.65952801618141</v>
       </c>
       <c r="G141">
-        <v>166.36822309935229</v>
+        <v>1637.7636063172661</v>
       </c>
       <c r="H141">
         <v>0.25</v>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K141" s="5">
         <v>1</v>
@@ -5851,22 +5851,22 @@
         <v>11</v>
       </c>
       <c r="B142" s="5">
-        <v>819.93246627345229</v>
+        <v>192.89250462964239</v>
       </c>
       <c r="C142" s="5">
-        <v>177.95107658333549</v>
+        <v>67.241805725236972</v>
       </c>
       <c r="D142" s="5">
-        <v>39.939352904811606</v>
+        <v>58.06044531774009</v>
       </c>
       <c r="E142" s="5">
-        <v>41.291352407113372</v>
+        <v>249.7546664921334</v>
       </c>
       <c r="F142" s="5">
-        <v>91.505400439019127</v>
+        <v>638.07402721615244</v>
       </c>
       <c r="G142">
-        <v>1170.619648607732</v>
+        <v>1206.023449380905</v>
       </c>
       <c r="H142">
         <v>0.25</v>
@@ -5875,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K142" s="5">
         <v>1</v>
@@ -5888,23 +5888,23 @@
       <c r="A143" t="s">
         <v>11</v>
       </c>
-      <c r="B143" s="5">
-        <v>755.21700314466875</v>
-      </c>
-      <c r="C143" s="5">
-        <v>268.68587531945712</v>
-      </c>
-      <c r="D143" s="5">
-        <v>162.55994015662239</v>
-      </c>
-      <c r="E143" s="5">
-        <v>247.64125968033579</v>
-      </c>
-      <c r="F143" s="5">
-        <v>203.65952801618141</v>
+      <c r="B143" s="3">
+        <v>4837.6830321010339</v>
+      </c>
+      <c r="C143" s="3">
+        <v>232.5203435652227</v>
+      </c>
+      <c r="D143" s="3">
+        <v>295.79976348367802</v>
+      </c>
+      <c r="E143" s="3">
+        <v>376.33636403781873</v>
+      </c>
+      <c r="F143" s="3">
+        <v>136.85024168323781</v>
       </c>
       <c r="G143">
-        <v>1637.7636063172661</v>
+        <v>5879.1897448709897</v>
       </c>
       <c r="H143">
         <v>0.25</v>
@@ -5913,36 +5913,36 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>15</v>
-      </c>
-      <c r="K143" s="5">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K143" s="3">
+        <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>11</v>
       </c>
-      <c r="B144" s="5">
-        <v>192.89250462964239</v>
-      </c>
-      <c r="C144" s="5">
-        <v>67.241805725236972</v>
-      </c>
-      <c r="D144" s="5">
-        <v>58.06044531774009</v>
-      </c>
-      <c r="E144" s="5">
-        <v>249.7546664921334</v>
-      </c>
-      <c r="F144" s="5">
-        <v>638.07402721615244</v>
+      <c r="B144" s="3">
+        <v>4656.8370087382773</v>
+      </c>
+      <c r="C144" s="3">
+        <v>1594.232871633104</v>
+      </c>
+      <c r="D144" s="3">
+        <v>490.75170901551252</v>
+      </c>
+      <c r="E144" s="3">
+        <v>428.82891076199701</v>
+      </c>
+      <c r="F144" s="3">
+        <v>281.56260069794808</v>
       </c>
       <c r="G144">
-        <v>1206.023449380905</v>
+        <v>7452.2131008468386</v>
       </c>
       <c r="H144">
         <v>0.25</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>6</v>
-      </c>
-      <c r="K144" s="5">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K144" s="3">
+        <v>0</v>
       </c>
       <c r="L144" t="s">
         <v>14</v>
@@ -5965,22 +5965,22 @@
         <v>11</v>
       </c>
       <c r="B145" s="5">
-        <v>2217.7430088295291</v>
+        <v>8808.7157432925433</v>
       </c>
       <c r="C145" s="5">
-        <v>279.24549147073043</v>
+        <v>2821.015763487721</v>
       </c>
       <c r="D145" s="5">
-        <v>141.74236719730729</v>
+        <v>1204.1731757473999</v>
       </c>
       <c r="E145" s="5">
-        <v>134.10122092984989</v>
+        <v>1888.6552855318071</v>
       </c>
       <c r="F145" s="5">
-        <v>852.32914664962186</v>
+        <v>901.39351969555855</v>
       </c>
       <c r="G145">
-        <v>3625.1612350770401</v>
+        <v>15623.95348775503</v>
       </c>
       <c r="H145">
         <v>0.25</v>
@@ -5995,10 +5995,14 @@
         <v>1</v>
       </c>
       <c r="L145" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L147">
+    <sortCondition ref="E2:E147"/>
+    <sortCondition ref="F2:F147"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>